--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1278686871565224</v>
+        <v>0.1259631331515539</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01764886316526895</v>
+        <v>0.007002943228193712</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02113939393066004</v>
+        <v>0.002072998458631569</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001893855464525884</v>
+        <v>0.09514283630513989</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04871219908371757</v>
+        <v>0.0696429846987633</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05066361716177025</v>
+        <v>0.03354124054756624</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09767600288182722</v>
+        <v>0.05547041693311862</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05206585089495501</v>
+        <v>0.08778796626037919</v>
       </c>
       <c r="M2" t="n">
-        <v>0.008417820160267405</v>
+        <v>0.003657050346389842</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0009446104688699322</v>
+        <v>0.003886786595117929</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09285477282845253</v>
+        <v>0.07670854680497566</v>
       </c>
       <c r="P2" t="n">
-        <v>0.06032572163677501</v>
+        <v>0.07225828427478218</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05597812915191318</v>
+        <v>0.03420445735396657</v>
       </c>
       <c r="R2" t="n">
-        <v>0.08947279984222471</v>
+        <v>0.09168323534906184</v>
       </c>
       <c r="S2" t="n">
-        <v>0.08408061965464125</v>
+        <v>0.07188599404699586</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08154297509776408</v>
+        <v>0.0007445200047680899</v>
       </c>
       <c r="U2" t="n">
-        <v>0.006686914794760878</v>
+        <v>0.0490369908711481</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02389431426915942</v>
+        <v>0.00262987806463955</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04243454749553845</v>
+        <v>0.07893617817024823</v>
       </c>
       <c r="X2" t="n">
-        <v>0.002413142051986538</v>
+        <v>0.0136474922362162</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02525101328848096</v>
+        <v>0.0242129637685278</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.04371844378424066</v>
+        <v>0.006234380099958116</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.05319928948552685</v>
+        <v>0.09233754799199208</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03898510340667331</v>
+        <v>0.02727430758941942</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.11357929651269</v>
+        <v>0.1811440960505368</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1445850864056903</v>
+        <v>0.1440713523256886</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001727098148533892</v>
+        <v>0.005511386074126936</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01286612454131058</v>
+        <v>0.0009683903815021239</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04615465831776237</v>
+        <v>0.05706461073619171</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07425088269089472</v>
+        <v>0.09161610576895651</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0266318868500093</v>
+        <v>0.01767755466152698</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06526895292896111</v>
+        <v>0.07487078987713884</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009819812754967551</v>
+        <v>0.008149385280013898</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07875068909944113</v>
+        <v>0.06363819726382203</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001815773026353305</v>
+        <v>0.00360472353987972</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03474693019342508</v>
+        <v>0.03300674504342828</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03832000794854128</v>
+        <v>0.0245878262220907</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.09139119176482143</v>
+        <v>0.05512150190344248</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0394159483283308</v>
+        <v>0.05809613308220133</v>
       </c>
       <c r="S3" t="n">
-        <v>0.04602958977382138</v>
+        <v>0.05933659709365337</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03729637563092094</v>
+        <v>0.05288940776545342</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08978584510950587</v>
+        <v>0.03594828818006281</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03209098798151395</v>
+        <v>0.06500894037351702</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05390411209249981</v>
+        <v>0.09376667943396072</v>
       </c>
       <c r="X3" t="n">
-        <v>0.06944400189279513</v>
+        <v>0.02400600519842262</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.86692387437189e-05</v>
+        <v>0.02137570418733389</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.03637179339028977</v>
+        <v>0.004985331379061448</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.02557132842009737</v>
+        <v>0.05651959070270125</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.08825733987645941</v>
+        <v>0.09225010585151194</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1379368558418811</v>
+        <v>0.1533243439897147</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1295409456241341</v>
+        <v>0.1272595869063876</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07733738545551123</v>
+        <v>0.03087403531829811</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04199348069600998</v>
+        <v>0.05691611721955824</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01694999458769992</v>
+        <v>0.06369597255041783</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01159343144436133</v>
+        <v>0.007814345529786325</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06526379076582207</v>
+        <v>0.04338673419293161</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08700582323436348</v>
+        <v>0.002477451568472859</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01456949010124239</v>
+        <v>0.0276947656720162</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03479581368400198</v>
+        <v>0.02891421931018404</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01735592790390769</v>
+        <v>0.007633417748169395</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05685157839232802</v>
+        <v>0.07581394510134679</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08402738176688752</v>
+        <v>0.04049346528898945</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02842694526238477</v>
+        <v>0.004616739702061857</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04711301447699184</v>
+        <v>0.08041229232519172</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03645484398515922</v>
+        <v>0.04960962836912461</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02817028526308852</v>
+        <v>0.07003033722518576</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08290707836434147</v>
+        <v>0.06174533151479001</v>
       </c>
       <c r="V4" t="n">
-        <v>0.07152775850055541</v>
+        <v>0.0305216280234364</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0726601284441846</v>
+        <v>0.07468496611300487</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01082163975888498</v>
+        <v>0.03380268490070917</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.006134107772401012</v>
+        <v>0.07619278650895087</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.06872738955806466</v>
+        <v>0.07283686772671732</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02446215777717878</v>
+        <v>0.05058168880462567</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01485055280462928</v>
+        <v>0.00925057928603092</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.7043806186064799</v>
+        <v>-0.5924721202871878</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1738557585795362</v>
+        <v>0.1942182779541169</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06741618445251493</v>
+        <v>0.08531242255028164</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001013694607378419</v>
+        <v>0.01990691308849266</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0912558166497366</v>
+        <v>0.0805817265682978</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05750881736765218</v>
+        <v>0.06911820878749818</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001338071207429818</v>
+        <v>0.02203355067538589</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04118050083400668</v>
+        <v>0.0396068809900388</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05672418463674325</v>
+        <v>0.09424537760966981</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005639619213266884</v>
+        <v>0.009632192576156058</v>
       </c>
       <c r="N5" t="n">
-        <v>6.813085957298105e-06</v>
+        <v>0.007243860479937887</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04707755114364718</v>
+        <v>0.02595893091278924</v>
       </c>
       <c r="P5" t="n">
-        <v>0.06773730219169642</v>
+        <v>0.04218616680585462</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09469241497474966</v>
+        <v>0.05262586787064442</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0654381287232154</v>
+        <v>0.02456691818643555</v>
       </c>
       <c r="S5" t="n">
-        <v>0.07594836187916858</v>
+        <v>0.02059617848088658</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02587235801270061</v>
+        <v>0.03502996053147309</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0421338257507054</v>
+        <v>0.001619634387769557</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0006948409748143401</v>
+        <v>0.01752665103754182</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02746244520706026</v>
+        <v>0.04372311848322737</v>
       </c>
       <c r="X5" t="n">
-        <v>0.09332658991017341</v>
+        <v>0.01644856758532892</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01025904949786091</v>
+        <v>0.1077807908376213</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.006925968844857483</v>
+        <v>0.0346119018001432</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.04693162276826816</v>
+        <v>0.04118797697635992</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.07341583806639607</v>
+        <v>0.1084562027781656</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.5504698350129418</v>
+        <v>-0.6530015889596703</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2351160516979987</v>
+        <v>0.2359631151744843</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06816585091511963</v>
+        <v>0.08751304069430095</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0281442258036689</v>
+        <v>0.02999025600393559</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0468700410437034</v>
+        <v>0.09192793194252094</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09206238651570706</v>
+        <v>0.03176472986978848</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04205104002411218</v>
+        <v>0.01966228461893446</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02820969904971759</v>
+        <v>0.005685178095751742</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0334373606300442</v>
+        <v>0.02886521433659855</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004556126232940968</v>
+        <v>0.008825162613676702</v>
       </c>
       <c r="N6" t="n">
-        <v>0.004168824212184352</v>
+        <v>0.001082276270681525</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03947547464310366</v>
+        <v>0.07330920924233497</v>
       </c>
       <c r="P6" t="n">
-        <v>0.08502113707909435</v>
+        <v>0.02104305197603086</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04559142983521497</v>
+        <v>0.1047565895303991</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05776792775221082</v>
+        <v>0.111655298232152</v>
       </c>
       <c r="S6" t="n">
-        <v>0.07624197387007348</v>
+        <v>0.1008110413787284</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02325907815665519</v>
+        <v>0.04095253831993964</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08298690978278787</v>
+        <v>0.09707564881015548</v>
       </c>
       <c r="V6" t="n">
-        <v>0.007037233668704612</v>
+        <v>0.0006684119926546502</v>
       </c>
       <c r="W6" t="n">
-        <v>0.09280281510674257</v>
+        <v>0.038849191468848</v>
       </c>
       <c r="X6" t="n">
-        <v>0.019682418990001</v>
+        <v>0.03572433182017604</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0361380394613745</v>
+        <v>0.03445526776049285</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.07264351251886375</v>
+        <v>0.02231562035897038</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.009507665382059069</v>
+        <v>0.003279663563396102</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.004178829325915878</v>
+        <v>0.009788061099532334</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1978923882237041</v>
+        <v>0.2042452669095475</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.3712563150795286</v>
+        <v>0.3362975007437645</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09061052455081064</v>
+        <v>0.08568942237253437</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01419821018045745</v>
+        <v>0.002899862689316272</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03085996601658918</v>
+        <v>0.0335903452186293</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0379805805648674</v>
+        <v>0.007583300315570431</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0008145794246806045</v>
+        <v>0.002475458279998082</v>
       </c>
       <c r="K7" t="n">
-        <v>0.022532346952387</v>
+        <v>0.001609926714559238</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1084109486697502</v>
+        <v>0.012588083582481</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00765113728109499</v>
+        <v>0.06117668934146893</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06163629615394271</v>
+        <v>0.05741013668185816</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1272368778011129</v>
+        <v>0.1040085884571747</v>
       </c>
       <c r="P7" t="n">
-        <v>0.002969460471694984</v>
+        <v>0.05870516595554345</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.009559201355563372</v>
+        <v>0.0150666063160866</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0004709783327887498</v>
+        <v>0.0007438844745776712</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05636959545889571</v>
+        <v>0.01799322225392705</v>
       </c>
       <c r="T7" t="n">
-        <v>0.05964482758122058</v>
+        <v>0.009201727420934482</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01079870114305597</v>
+        <v>0.003974322858982302</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1361099734705783</v>
+        <v>0.1186094576315634</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1131852870712128</v>
+        <v>0.04921028745829879</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02517662039504722</v>
+        <v>0.0992201231344991</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02904741449829762</v>
+        <v>0.1073771414446232</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.002354908038904159</v>
+        <v>0.06268122210493303</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.001207017487143433</v>
+        <v>0.02550788305284565</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0511745470999042</v>
+        <v>0.06267714223959468</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.4080254058319217</v>
+        <v>0.3249686130804448</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.249169458219577</v>
+        <v>0.24950704269965</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03519170297314254</v>
+        <v>0.07066798760586417</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009292530766154992</v>
+        <v>0.03666823938634627</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03717156401601003</v>
+        <v>0.00427161006184612</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04687246500885777</v>
+        <v>0.03212863560328608</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07956991711681452</v>
+        <v>0.08157337187087371</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02471202249966541</v>
+        <v>0.01174440827443775</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02310582096817159</v>
+        <v>0.05420179802427966</v>
       </c>
       <c r="M8" t="n">
-        <v>0.009408728334526925</v>
+        <v>0.04236915677447919</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01914560218377713</v>
+        <v>0.003062130842434514</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04063276786890045</v>
+        <v>0.0001873768799443983</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07001793314480592</v>
+        <v>0.07621917285332461</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.016238400271046</v>
+        <v>0.04610851686065007</v>
       </c>
       <c r="R8" t="n">
-        <v>0.08674979859193484</v>
+        <v>0.09096218334407916</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05769156446454919</v>
+        <v>0.08014736305627217</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03983562970338858</v>
+        <v>0.004249882471033283</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03475183994158472</v>
+        <v>0.0131768754693123</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02430642996542485</v>
+        <v>0.02832651913332349</v>
       </c>
       <c r="W8" t="n">
-        <v>0.08969045311249513</v>
+        <v>0.09545678010411138</v>
       </c>
       <c r="X8" t="n">
-        <v>0.08025318281424738</v>
+        <v>0.06631288392151791</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.07856564983846358</v>
+        <v>0.09271193052979951</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.06979699275416251</v>
+        <v>0.03767775539211801</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.004389171004103796</v>
+        <v>0.01005808315817236</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.02260983265777234</v>
+        <v>0.02171733838249405</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1137624084524876</v>
+        <v>0.1105988185832917</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3236659576879156</v>
+        <v>0.3457254485025152</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08770087260502372</v>
+        <v>0.01917076660563618</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09647755420323588</v>
+        <v>0.0218857612312118</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03966458368653825</v>
+        <v>0.09482718082895476</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02376355558696811</v>
+        <v>0.02268467802579872</v>
       </c>
       <c r="J9" t="n">
-        <v>0.008445292812907217</v>
+        <v>0.08355425682662559</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0008197285832578998</v>
+        <v>0.05931296095454569</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01465994116311936</v>
+        <v>0.04802826741647746</v>
       </c>
       <c r="M9" t="n">
-        <v>0.007321890478765973</v>
+        <v>0.00522317376064704</v>
       </c>
       <c r="N9" t="n">
-        <v>0.07433136719722479</v>
+        <v>0.1227754890922747</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04797202232817221</v>
+        <v>0.02383618228145957</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03988242860840994</v>
+        <v>0.02434806827758655</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01337571516659716</v>
+        <v>0.004583826796279489</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03831605829978632</v>
+        <v>0.08836344675459254</v>
       </c>
       <c r="S9" t="n">
-        <v>0.07944483059082645</v>
+        <v>0.01537060243379937</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03730354947149526</v>
+        <v>0.0418645916735351</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1013534053296401</v>
+        <v>0.113845364418416</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1296480749226711</v>
+        <v>0.1276311146285645</v>
       </c>
       <c r="W9" t="n">
-        <v>0.00293652860618295</v>
+        <v>0.02383345608552621</v>
       </c>
       <c r="X9" t="n">
-        <v>0.007743385390885673</v>
+        <v>0.0253716599931831</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01523298709779666</v>
+        <v>0.005331884827241311</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.03648870972697717</v>
+        <v>0.003902096426200978</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.02802422072991556</v>
+        <v>0.01828059077633264</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0690932974136023</v>
+        <v>0.005974579885110613</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1943353395306265</v>
+        <v>0.2142664248883905</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1985856279795939</v>
+        <v>0.1933998482315762</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01375676394568425</v>
+        <v>0.002103701197674173</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0160757557180918</v>
+        <v>0.09238935213573436</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03706340885305696</v>
+        <v>0.001570825250065103</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06288147379507442</v>
+        <v>0.09018257231975198</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0214342999470263</v>
+        <v>0.002073661015018771</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02286433868224457</v>
+        <v>0.008462684376699935</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02486774286628644</v>
+        <v>0.03958060137708051</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0400190013993573</v>
+        <v>0.03956326872571694</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01476947664327926</v>
+        <v>0.03347112477665887</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01936628656245745</v>
+        <v>0.05785658669430126</v>
       </c>
       <c r="P10" t="n">
-        <v>0.09530960807708276</v>
+        <v>0.0864164311392952</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03728302667689148</v>
+        <v>0.08246288680780758</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08173441712314476</v>
+        <v>0.06053756230868768</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01913594784435309</v>
+        <v>0.06481253662728359</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01156063643318703</v>
+        <v>0.001347512227479222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.07129686270872718</v>
+        <v>0.03595882099003769</v>
       </c>
       <c r="V10" t="n">
-        <v>0.001336037604416743</v>
+        <v>0.04787730247241023</v>
       </c>
       <c r="W10" t="n">
-        <v>0.09884813252118467</v>
+        <v>0.04426882117938577</v>
       </c>
       <c r="X10" t="n">
-        <v>0.08904381848311448</v>
+        <v>0.08796675919760312</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03856346629390381</v>
+        <v>0.03968146163287231</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.1081678314723515</v>
+        <v>0.06247431685711102</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.04689987099872447</v>
+        <v>0.01242733827252543</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.02772179535035947</v>
+        <v>0.006513872418799392</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.07899670394197629</v>
+        <v>-0.1245222012327999</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2285301980328665</v>
+        <v>0.3072225725196169</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01633196889590637</v>
+        <v>0.04671170004492384</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07582267407638082</v>
+        <v>0.1075623455583946</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05911035790637551</v>
+        <v>0.04843089712337365</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01334982441434481</v>
+        <v>0.05877633482043912</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02396273151482424</v>
+        <v>0.08432805066882632</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0320023955013819</v>
+        <v>0.01626722185821517</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0249718049247588</v>
+        <v>0.01291557534857208</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01049716555105481</v>
+        <v>0.02053455180115003</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001231975636553355</v>
+        <v>0.02407405904158342</v>
       </c>
       <c r="O11" t="n">
-        <v>0.06193924746617116</v>
+        <v>0.01234885567486863</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01398333095907672</v>
+        <v>0.02140356312551635</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02971959806584193</v>
+        <v>0.004729504597198663</v>
       </c>
       <c r="R11" t="n">
-        <v>0.06766356644888902</v>
+        <v>0.04294114825476383</v>
       </c>
       <c r="S11" t="n">
-        <v>0.08006263760423304</v>
+        <v>0.09348633545385548</v>
       </c>
       <c r="T11" t="n">
-        <v>0.00495836847986613</v>
+        <v>0.0683604911759428</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09241584741929385</v>
+        <v>0.003631875514337907</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1039313792501071</v>
+        <v>0.1081417946693228</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02260881736899644</v>
+        <v>0.01641787930296128</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01156872401224097</v>
+        <v>0.003859873019405227</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.05865325760483311</v>
+        <v>0.009200753517975602</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.09220731358308661</v>
+        <v>0.02916635179492934</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.03595017832357997</v>
+        <v>0.08306380558439123</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.06705683499220327</v>
+        <v>0.08364703204905249</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.1073105656178869</v>
+        <v>-0.1265913573149279</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1815623286386664</v>
+        <v>0.1800355314595714</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05716463597355335</v>
+        <v>0.07098775346885632</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002356132919286474</v>
+        <v>0.05431912284252807</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04163855954436241</v>
+        <v>0.05558309347059122</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0798549400174187</v>
+        <v>0.008005908618877787</v>
       </c>
       <c r="J12" t="n">
-        <v>0.04608562079302846</v>
+        <v>0.07280383214290825</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01962832193943977</v>
+        <v>0.006102303765080111</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07510816349197443</v>
+        <v>0.0007401543449895327</v>
       </c>
       <c r="M12" t="n">
-        <v>0.07731160051937261</v>
+        <v>0.0142783183039013</v>
       </c>
       <c r="N12" t="n">
-        <v>0.009514272381259953</v>
+        <v>0.005648015702064021</v>
       </c>
       <c r="O12" t="n">
-        <v>0.03040640042066872</v>
+        <v>0.003675129557190364</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0110750776148174</v>
+        <v>0.06915819550191997</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02689827938718483</v>
+        <v>0.03772116008370131</v>
       </c>
       <c r="R12" t="n">
-        <v>0.07136124415719944</v>
+        <v>0.09951195900109606</v>
       </c>
       <c r="S12" t="n">
-        <v>0.07922102601361306</v>
+        <v>0.06249095176236045</v>
       </c>
       <c r="T12" t="n">
-        <v>0.03513982423784572</v>
+        <v>0.01434448546493649</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06491011152625387</v>
+        <v>0.07300355508353894</v>
       </c>
       <c r="V12" t="n">
-        <v>0.007276731011170753</v>
+        <v>0.01095864335032847</v>
       </c>
       <c r="W12" t="n">
-        <v>0.07633033251241901</v>
+        <v>0.09378770026829603</v>
       </c>
       <c r="X12" t="n">
-        <v>0.05048890301977016</v>
+        <v>0.007220421076919423</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.008733834179809843</v>
+        <v>0.04774248172437497</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.03914224489205978</v>
+        <v>0.05962698755853726</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.04644169890333302</v>
+        <v>0.07150687342139968</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.04391204454415806</v>
+        <v>0.06078295348560404</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2137937753069803</v>
+        <v>0.1850839586032318</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1943736071433284</v>
+        <v>0.1889108645662559</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07827161725283212</v>
+        <v>0.08616909783283117</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00301836565932888</v>
+        <v>0.05231361281351336</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04670951088898694</v>
+        <v>0.009335577393132392</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04566124197393662</v>
+        <v>0.09227293718760649</v>
       </c>
       <c r="J13" t="n">
-        <v>0.008078611069507073</v>
+        <v>0.006856992283912083</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1285680582094302</v>
+        <v>0.01517454155271902</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01980246630986891</v>
+        <v>0.05847113134774005</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02952189678701676</v>
+        <v>0.03020315619716812</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04786989329506115</v>
+        <v>0.01867309599705583</v>
       </c>
       <c r="O13" t="n">
-        <v>0.008968163698984788</v>
+        <v>0.06652355370321947</v>
       </c>
       <c r="P13" t="n">
-        <v>0.022415038331257</v>
+        <v>0.02696951660678099</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.03102343163936274</v>
+        <v>0.01061706092060176</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1253309279585374</v>
+        <v>0.09776738255883877</v>
       </c>
       <c r="S13" t="n">
-        <v>0.07691635395556001</v>
+        <v>0.10874058832895</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02564623485196144</v>
+        <v>0.03812915955775521</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01195359778902707</v>
+        <v>0.09582674187633106</v>
       </c>
       <c r="V13" t="n">
-        <v>0.007405306653675542</v>
+        <v>0.02314491027279559</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1049193049804404</v>
+        <v>0.08320601653777485</v>
       </c>
       <c r="X13" t="n">
-        <v>0.09002081100141959</v>
+        <v>0.0162115209196016</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01740973636885404</v>
+        <v>0.03522182669231516</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.04208708260634437</v>
+        <v>0.008193233486238276</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01495089131343165</v>
+        <v>0.01406015656845274</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01345145740517531</v>
+        <v>0.005918189364665953</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2281620220954408</v>
+        <v>0.2067866592343471</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1807651018691503</v>
+        <v>0.1857119383815986</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03701279629738916</v>
+        <v>0.0118468616040993</v>
       </c>
       <c r="G14" t="n">
-        <v>4.593758900583652e-05</v>
+        <v>0.0692216239020438</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02394118558107318</v>
+        <v>0.03733512309186588</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04467491167992831</v>
+        <v>0.03729256165570654</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03282263573728084</v>
+        <v>0.02459777790913055</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01207174133717511</v>
+        <v>0.006344799078649539</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07420704145909403</v>
+        <v>0.02425837319885836</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06072869766495462</v>
+        <v>0.05648365165568914</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01048406648959762</v>
+        <v>0.004607360760455054</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06558099196875895</v>
+        <v>0.05670153854222656</v>
       </c>
       <c r="P14" t="n">
-        <v>0.07924735888383283</v>
+        <v>0.07331837073955573</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.04005552209105565</v>
+        <v>0.09425007069773135</v>
       </c>
       <c r="R14" t="n">
-        <v>0.07321758616392264</v>
+        <v>0.08849111411951754</v>
       </c>
       <c r="S14" t="n">
-        <v>0.09963397669798771</v>
+        <v>0.07626811710396157</v>
       </c>
       <c r="T14" t="n">
-        <v>0.003043764548555686</v>
+        <v>0.04812669151141558</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04673052739894174</v>
+        <v>0.05924767545816104</v>
       </c>
       <c r="V14" t="n">
-        <v>0.04338420221899227</v>
+        <v>0.03461462495738206</v>
       </c>
       <c r="W14" t="n">
-        <v>0.03800307606705277</v>
+        <v>0.0011199898381083</v>
       </c>
       <c r="X14" t="n">
-        <v>0.06660083015730357</v>
+        <v>0.05022515620091422</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.003140067487520407</v>
+        <v>0.006826257831699632</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.05556300699422233</v>
+        <v>0.07093292111821309</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.06693071064758303</v>
+        <v>0.05894297022056111</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.02287936483877155</v>
+        <v>0.008946368804054137</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.2194054611433626</v>
+        <v>0.1750487029835016</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.2188017907679964</v>
+        <v>0.225965386993802</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07265345615596452</v>
+        <v>0.03275136925844568</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09289543703130644</v>
+        <v>0.02513486875251734</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0550400676670157</v>
+        <v>0.00984910756083408</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07589028893925005</v>
+        <v>0.09578305694088848</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03733302502512668</v>
+        <v>0.02077944466786556</v>
       </c>
       <c r="K15" t="n">
-        <v>0.05423636845116054</v>
+        <v>0.1058388534914272</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03913960577694015</v>
+        <v>0.1092935343744848</v>
       </c>
       <c r="M15" t="n">
-        <v>0.04186524817131797</v>
+        <v>0.02764773094365614</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01635270170558488</v>
+        <v>0.01782338292024718</v>
       </c>
       <c r="O15" t="n">
-        <v>0.09585939658077934</v>
+        <v>0.1374814504391464</v>
       </c>
       <c r="P15" t="n">
-        <v>0.002486761661114918</v>
+        <v>0.01511785091428184</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.009036325022186369</v>
+        <v>0.03375957628244491</v>
       </c>
       <c r="R15" t="n">
-        <v>0.03364623786259572</v>
+        <v>0.02397068055816314</v>
       </c>
       <c r="S15" t="n">
-        <v>0.03942341569663002</v>
+        <v>0.03018557783312511</v>
       </c>
       <c r="T15" t="n">
-        <v>0.07553447248051975</v>
+        <v>0.008163447547729151</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01325399955823757</v>
+        <v>0.05372081556681069</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01758507144882986</v>
+        <v>0.0207575817178677</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02223023965305804</v>
+        <v>0.001553933006106814</v>
       </c>
       <c r="X15" t="n">
-        <v>0.08507518290439028</v>
+        <v>0.08393798236060861</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.002950339568525724</v>
+        <v>0.008102747395508179</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.06628850861117282</v>
+        <v>0.02677488406780256</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.008960872532129308</v>
+        <v>0.04138914215822955</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.04226297749616323</v>
+        <v>0.07018298124180884</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.2269687900091851</v>
+        <v>0.2833445696460045</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1476438308926887</v>
+        <v>0.1484085680891115</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07674932786749786</v>
+        <v>0.04441958780977109</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003884244734125273</v>
+        <v>0.01490707005093408</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02938408598864778</v>
+        <v>0.02807588963427653</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01128344865559126</v>
+        <v>0.03253861015955634</v>
       </c>
       <c r="J16" t="n">
-        <v>0.05320173367724516</v>
+        <v>0.06830804316448345</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01616237159862749</v>
+        <v>0.06359512509299491</v>
       </c>
       <c r="L16" t="n">
-        <v>2.529127012393866e-07</v>
+        <v>0.01100858546296506</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04799219593576407</v>
+        <v>0.02167259046753053</v>
       </c>
       <c r="N16" t="n">
-        <v>0.03020639651292304</v>
+        <v>0.00719694610259582</v>
       </c>
       <c r="O16" t="n">
-        <v>0.06394655976233668</v>
+        <v>0.008596875094536629</v>
       </c>
       <c r="P16" t="n">
-        <v>0.09007393792766871</v>
+        <v>0.098271828212387</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.03840229339630832</v>
+        <v>0.08090825975055251</v>
       </c>
       <c r="R16" t="n">
-        <v>0.08451823969521913</v>
+        <v>0.09707568021965797</v>
       </c>
       <c r="S16" t="n">
-        <v>0.002770937003625922</v>
+        <v>0.0854166087034296</v>
       </c>
       <c r="T16" t="n">
-        <v>0.04917369832113377</v>
+        <v>0.001544352177438534</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07097357805418636</v>
+        <v>0.08584270971572563</v>
       </c>
       <c r="V16" t="n">
-        <v>0.007536592579035023</v>
+        <v>0.02410426312643033</v>
       </c>
       <c r="W16" t="n">
-        <v>0.030476875596825</v>
+        <v>0.02525022633533149</v>
       </c>
       <c r="X16" t="n">
-        <v>0.05269089877426513</v>
+        <v>0.01227039584246754</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.1120528237122391</v>
+        <v>0.09963804323801895</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.02951643494268141</v>
+        <v>0.0200951122287166</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.09851914759622946</v>
+        <v>0.03045271059563237</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0004839247551226906</v>
+        <v>0.03881048681456711</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.003647765023152569</v>
+        <v>0.05123395413793603</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1552072563187741</v>
+        <v>0.1695418173501848</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02349979028126011</v>
+        <v>0.01401991228230338</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0006488857764561306</v>
+        <v>0.003365330864269808</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01017102441341629</v>
+        <v>0.01351839314561113</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05258648113789028</v>
+        <v>0.08195327270411902</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03236916259816627</v>
+        <v>0.09519437477918065</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1078975067947731</v>
+        <v>0.08898875372461809</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01075630711895942</v>
+        <v>0.02217802427684632</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01866895217547168</v>
+        <v>0.06032992526403135</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0241817928203885</v>
+        <v>0.02318989345755457</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03117838754464753</v>
+        <v>0.09030245240613659</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1047486262905803</v>
+        <v>0.06314167014542428</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.07203812996777779</v>
+        <v>0.04160591284701851</v>
       </c>
       <c r="R17" t="n">
-        <v>0.04640422264041031</v>
+        <v>0.001469912274644574</v>
       </c>
       <c r="S17" t="n">
-        <v>0.08055871448863546</v>
+        <v>0.1061901172737825</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0499104746973232</v>
+        <v>0.004870867262091853</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04812819471234991</v>
+        <v>0.03584795940518597</v>
       </c>
       <c r="V17" t="n">
-        <v>0.007470946140267822</v>
+        <v>0.01506074654878999</v>
       </c>
       <c r="W17" t="n">
-        <v>0.03446721765635116</v>
+        <v>0.02006672444477931</v>
       </c>
       <c r="X17" t="n">
-        <v>0.08552894666951497</v>
+        <v>0.04349285421215441</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.03820596089629992</v>
+        <v>0.02341368761697127</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.02597353453857908</v>
+        <v>0.03542580546324451</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.06789242130417553</v>
+        <v>0.0519676156274853</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0267143193363053</v>
+        <v>0.06440579397375663</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.05401775783592582</v>
+        <v>0.04604662814776475</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1257680345503504</v>
+        <v>0.1259647706254098</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08032162584562957</v>
+        <v>0.07936548762994411</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03322039867845333</v>
+        <v>0.004217171987257871</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04524149014645329</v>
+        <v>0.07616180701993974</v>
       </c>
       <c r="I18" t="n">
-        <v>0.006588179503852476</v>
+        <v>0.006686838721656759</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02533611769638054</v>
+        <v>0.04070723993844905</v>
       </c>
       <c r="K18" t="n">
-        <v>0.003024839843554259</v>
+        <v>0.002113758253185871</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01137268627783789</v>
+        <v>0.004596592884098738</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01552021741863935</v>
+        <v>0.003260653760585145</v>
       </c>
       <c r="N18" t="n">
-        <v>0.07817922185067191</v>
+        <v>0.03773069516778645</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01290844723211549</v>
+        <v>0.02438098795097174</v>
       </c>
       <c r="P18" t="n">
-        <v>0.007676550165336153</v>
+        <v>0.06178369090253103</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.05438025771382531</v>
+        <v>0.04423681209190523</v>
       </c>
       <c r="R18" t="n">
-        <v>0.05555833782993175</v>
+        <v>0.05634740824144296</v>
       </c>
       <c r="S18" t="n">
-        <v>0.04715385967364984</v>
+        <v>0.04246076198868851</v>
       </c>
       <c r="T18" t="n">
-        <v>0.06332552084781484</v>
+        <v>0.02064657490268021</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08345525052537592</v>
+        <v>0.09828846028452468</v>
       </c>
       <c r="V18" t="n">
-        <v>0.05008762245485013</v>
+        <v>0.06920748911486331</v>
       </c>
       <c r="W18" t="n">
-        <v>0.02429271748183542</v>
+        <v>0.04405070005443191</v>
       </c>
       <c r="X18" t="n">
-        <v>0.05814437227738072</v>
+        <v>0.06909057293450065</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0667846470401014</v>
+        <v>0.03765256639079395</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.05294406542875207</v>
+        <v>0.08670915597413827</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.04801749264562123</v>
+        <v>0.05626419025021182</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.07646608142193725</v>
+        <v>0.034040383555412</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.05058383807510915</v>
+        <v>0.108419126109293</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1451696928441431</v>
+        <v>0.1483380346803028</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02738518682499178</v>
+        <v>0.004683414368238043</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09651754067559767</v>
+        <v>0.02077404757863766</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02209456176982045</v>
+        <v>0.04067040633652735</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08660907628090647</v>
+        <v>0.0141833603766707</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01416072279581987</v>
+        <v>0.1064354318615674</v>
       </c>
       <c r="K19" t="n">
-        <v>0.09347710855780041</v>
+        <v>0.06986103928586444</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04447094128790927</v>
+        <v>0.08154845752758334</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01696186501949334</v>
+        <v>0.007246687216658413</v>
       </c>
       <c r="N19" t="n">
-        <v>0.04745879844102809</v>
+        <v>0.007195226940860819</v>
       </c>
       <c r="O19" t="n">
-        <v>0.006375648169176434</v>
+        <v>0.06352082699160219</v>
       </c>
       <c r="P19" t="n">
-        <v>0.003752552669806494</v>
+        <v>0.005245368433775995</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0009170376042182125</v>
+        <v>0.03774207703458355</v>
       </c>
       <c r="R19" t="n">
-        <v>0.03880708085991309</v>
+        <v>0.06685087610129536</v>
       </c>
       <c r="S19" t="n">
-        <v>0.09430546454197547</v>
+        <v>0.1055509695720607</v>
       </c>
       <c r="T19" t="n">
-        <v>0.04838726952874092</v>
+        <v>0.003486545366826414</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02885070135404996</v>
+        <v>0.1015262512780078</v>
       </c>
       <c r="V19" t="n">
-        <v>0.08542782707367551</v>
+        <v>0.09434280800841378</v>
       </c>
       <c r="W19" t="n">
-        <v>0.007718000372764799</v>
+        <v>0.01135271071817283</v>
       </c>
       <c r="X19" t="n">
-        <v>0.08861746119850814</v>
+        <v>0.0228137363898841</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.04600307238715105</v>
+        <v>0.007813186430854938</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.02150582446326891</v>
+        <v>0.09225396169742583</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.05720053824275843</v>
+        <v>0.02853895335211085</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.02299571988062535</v>
+        <v>0.006363657132377583</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.138707055639274</v>
+        <v>0.1647567187064278</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1661752649763622</v>
+        <v>0.167624699355663</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02562225545212015</v>
+        <v>0.01448806695593459</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04588526822373501</v>
+        <v>0.08917086342628894</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0231016205917332</v>
+        <v>0.005742405589335294</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03647299950444546</v>
+        <v>0.1002466660222077</v>
       </c>
       <c r="J20" t="n">
-        <v>0.004015340630994057</v>
+        <v>0.09774940989588453</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002280846277645693</v>
+        <v>0.01523846481785829</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06126811345003447</v>
+        <v>0.009629070710558544</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09024852761872318</v>
+        <v>0.0180788661676077</v>
       </c>
       <c r="N20" t="n">
-        <v>0.06116414176812245</v>
+        <v>0.06222805242906727</v>
       </c>
       <c r="O20" t="n">
-        <v>0.06787172962215471</v>
+        <v>0.04446615340655194</v>
       </c>
       <c r="P20" t="n">
-        <v>0.006152636203048912</v>
+        <v>0.008824631574626263</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0669830540207275</v>
+        <v>0.01123162890438463</v>
       </c>
       <c r="R20" t="n">
-        <v>0.05566021687081457</v>
+        <v>0.03696444548981593</v>
       </c>
       <c r="S20" t="n">
-        <v>0.004810143981834303</v>
+        <v>0.004014734465205366</v>
       </c>
       <c r="T20" t="n">
-        <v>0.02955862600833632</v>
+        <v>0.03177864653131384</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05417109738270316</v>
+        <v>0.09669234888145846</v>
       </c>
       <c r="V20" t="n">
-        <v>0.007815825489694946</v>
+        <v>0.008468604312481689</v>
       </c>
       <c r="W20" t="n">
-        <v>0.03179398890586998</v>
+        <v>0.01063455187729993</v>
       </c>
       <c r="X20" t="n">
-        <v>0.06895204719858901</v>
+        <v>0.05390430208934955</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.03829831927229076</v>
+        <v>0.009677892818713346</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.09180622693498676</v>
+        <v>0.1042546987805131</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.07247740177613214</v>
+        <v>0.07692968651684257</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.05358957281526319</v>
+        <v>0.08958580833670064</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.07182576877225617</v>
+        <v>0.05853392294243243</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1884111307919184</v>
+        <v>0.2251440849221384</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08565291025451416</v>
+        <v>0.09152079667641712</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1109554934732016</v>
+        <v>0.02945633551362856</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02870241963072738</v>
+        <v>0.01429449058578972</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00533991811988802</v>
+        <v>0.02377932688981706</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0398167157202304</v>
+        <v>0.05397851967333674</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01483426384791804</v>
+        <v>0.05565826807190171</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02191590256448559</v>
+        <v>0.02115519880788891</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03539305602948027</v>
+        <v>0.03274753565859791</v>
       </c>
       <c r="N21" t="n">
-        <v>0.02247206343238997</v>
+        <v>0.002060852986849211</v>
       </c>
       <c r="O21" t="n">
-        <v>0.00413912652904725</v>
+        <v>0.04605885751472599</v>
       </c>
       <c r="P21" t="n">
-        <v>0.04388543119457825</v>
+        <v>0.08818164248381001</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.03350332648852188</v>
+        <v>0.005322833891348937</v>
       </c>
       <c r="R21" t="n">
-        <v>0.06951336744336452</v>
+        <v>0.07205087705976326</v>
       </c>
       <c r="S21" t="n">
-        <v>0.02872695935283625</v>
+        <v>0.05890760575172596</v>
       </c>
       <c r="T21" t="n">
-        <v>0.0765137440792841</v>
+        <v>0.02879756838814769</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04692037453338659</v>
+        <v>0.0103041213037103</v>
       </c>
       <c r="V21" t="n">
-        <v>0.09448638244740315</v>
+        <v>0.09245960279756524</v>
       </c>
       <c r="W21" t="n">
-        <v>0.03508771653119884</v>
+        <v>0.01803664602303337</v>
       </c>
       <c r="X21" t="n">
-        <v>0.04253997750469377</v>
+        <v>0.08922958676049304</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.007894332994297227</v>
+        <v>0.001969640359652582</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.1112771397890992</v>
+        <v>0.09172384736087644</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.01889269192359999</v>
+        <v>0.06802697303193612</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.02153668611585376</v>
+        <v>0.004278872408984059</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.1237805203208007</v>
+        <v>0.1316067723317506</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1843891455482046</v>
+        <v>0.1873327735047886</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0417959347323025</v>
+        <v>0.05499187952973961</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03891200468894317</v>
+        <v>0.0384550894847606</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01286035852771519</v>
+        <v>0.009001017347641261</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01130593854449475</v>
+        <v>0.0479072735439746</v>
       </c>
       <c r="J22" t="n">
-        <v>0.04869084005070491</v>
+        <v>0.06333841006220622</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05379618518062278</v>
+        <v>0.05601388912457709</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002063674554471913</v>
+        <v>0.02444913463315297</v>
       </c>
       <c r="M22" t="n">
-        <v>0.06087248574195855</v>
+        <v>0.04464911454690679</v>
       </c>
       <c r="N22" t="n">
-        <v>0.00325644511468946</v>
+        <v>0.01109461016942714</v>
       </c>
       <c r="O22" t="n">
-        <v>0.08898021240360361</v>
+        <v>0.0517346499941951</v>
       </c>
       <c r="P22" t="n">
-        <v>0.09773615391082313</v>
+        <v>0.01992398567729024</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.04151369375272858</v>
+        <v>0.06214125649407776</v>
       </c>
       <c r="R22" t="n">
-        <v>0.07694107916301737</v>
+        <v>0.07986517626131007</v>
       </c>
       <c r="S22" t="n">
-        <v>0.009032841129720874</v>
+        <v>0.01118292807500053</v>
       </c>
       <c r="T22" t="n">
-        <v>0.05387064498593679</v>
+        <v>0.02933393351311437</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06863266005738648</v>
+        <v>0.07149193571512542</v>
       </c>
       <c r="V22" t="n">
-        <v>0.02207862493506621</v>
+        <v>0.005147425792066748</v>
       </c>
       <c r="W22" t="n">
-        <v>0.04099875540954961</v>
+        <v>0.05776824504384922</v>
       </c>
       <c r="X22" t="n">
-        <v>0.09163648621707472</v>
+        <v>0.07729291638216113</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.05802933491665731</v>
+        <v>0.04244540844808054</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.01118275772303562</v>
+        <v>0.080445335687563</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.05758279089515114</v>
+        <v>0.03244798622917927</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.008230097364345353</v>
+        <v>0.02887839824460015</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.08305949873652811</v>
+        <v>0.08567496814735316</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2225701981787153</v>
+        <v>0.2071892075628458</v>
       </c>
       <c r="F23" t="n">
-        <v>0.09839594466570922</v>
+        <v>0.09899911648936069</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01029951885852682</v>
+        <v>0.01247025122158729</v>
       </c>
       <c r="H23" t="n">
-        <v>0.008595151855246723</v>
+        <v>0.005467389170656648</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01395540864152763</v>
+        <v>0.03792631454558017</v>
       </c>
       <c r="J23" t="n">
-        <v>0.003338850505070852</v>
+        <v>0.05500716771157151</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02130122464347728</v>
+        <v>0.02553908191876293</v>
       </c>
       <c r="L23" t="n">
-        <v>0.020833571332346</v>
+        <v>0.01897579059648719</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03822779955096539</v>
+        <v>0.03524466093105619</v>
       </c>
       <c r="N23" t="n">
-        <v>0.03028330663711216</v>
+        <v>0.01531185838461778</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0802836296185654</v>
+        <v>0.102406033430228</v>
       </c>
       <c r="P23" t="n">
-        <v>0.03907755128828799</v>
+        <v>0.005064604846404277</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.06765821051540628</v>
+        <v>0.07344358230485613</v>
       </c>
       <c r="R23" t="n">
-        <v>0.01661343142597258</v>
+        <v>0.03259939145013559</v>
       </c>
       <c r="S23" t="n">
-        <v>0.04174629206100564</v>
+        <v>0.01245474707671213</v>
       </c>
       <c r="T23" t="n">
-        <v>0.02119741242658243</v>
+        <v>0.07513045611082361</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06678204172178319</v>
+        <v>0.01273573918467394</v>
       </c>
       <c r="V23" t="n">
-        <v>0.08880599052156769</v>
+        <v>0.1000887967789577</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01111532349711537</v>
+        <v>0.01076225000000041</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0569252586829719</v>
+        <v>0.03663198134628012</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.07478950645263921</v>
+        <v>0.092279326228999</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.08514227086831071</v>
+        <v>0.06401136015395097</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.09714888063899549</v>
+        <v>0.0260588692363288</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.007483423590814144</v>
+        <v>0.05139123088196908</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.1148474650799891</v>
+        <v>0.1489898203414861</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1338429299434059</v>
+        <v>0.1375075108605006</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08115309369923236</v>
+        <v>0.05465592299650276</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00384876880609977</v>
+        <v>0.02361872633910696</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07947709937151344</v>
+        <v>0.07392386101664565</v>
       </c>
       <c r="I24" t="n">
-        <v>0.06849345610126474</v>
+        <v>0.09266831500005239</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01938043508250069</v>
+        <v>0.02491035348123909</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01228536842976395</v>
+        <v>0.002942663556459195</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04789996194607772</v>
+        <v>0.01232440539899876</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03730170699591364</v>
+        <v>0.06265806218522266</v>
       </c>
       <c r="N24" t="n">
-        <v>0.02371757309783746</v>
+        <v>0.0245552507624503</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0100054635910231</v>
+        <v>0.06048736411668394</v>
       </c>
       <c r="P24" t="n">
-        <v>0.02916314615736814</v>
+        <v>0.07084963399804255</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.03045307688961265</v>
+        <v>0.01014873560753651</v>
       </c>
       <c r="R24" t="n">
-        <v>0.09656199017793783</v>
+        <v>0.04717327863449462</v>
       </c>
       <c r="S24" t="n">
-        <v>0.09229258463673819</v>
+        <v>0.02962541949344538</v>
       </c>
       <c r="T24" t="n">
-        <v>0.05056947863608648</v>
+        <v>0.1006088640617858</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08979008978813913</v>
+        <v>0.08703843218124681</v>
       </c>
       <c r="V24" t="n">
-        <v>0.000513215551550414</v>
+        <v>0.004599178965627934</v>
       </c>
       <c r="W24" t="n">
-        <v>0.08055117636236117</v>
+        <v>0.05294746113296127</v>
       </c>
       <c r="X24" t="n">
-        <v>0.02146811075244143</v>
+        <v>0.09753789047820273</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.02773416497956245</v>
+        <v>0.0004402871282772211</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01040646655419402</v>
+        <v>0.0254693465989816</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.06982178926370587</v>
+        <v>0.01217769641995376</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01711178312907544</v>
+        <v>0.02863885044608206</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.246411992241941</v>
+        <v>-0.2345007264299186</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1810305495117763</v>
+        <v>0.166512231307497</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01342839000868674</v>
+        <v>0.001737970721013627</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0360788521316437</v>
+        <v>0.0179293690708967</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06880655124914274</v>
+        <v>0.005584504751141795</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0742830657632024</v>
+        <v>0.04779278372242273</v>
       </c>
       <c r="J25" t="n">
-        <v>0.008264293712694855</v>
+        <v>0.007193151576445362</v>
       </c>
       <c r="K25" t="n">
-        <v>0.08317852024695951</v>
+        <v>0.01547549254117167</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04202935802893921</v>
+        <v>0.03749883865683262</v>
       </c>
       <c r="M25" t="n">
-        <v>0.09030064942988109</v>
+        <v>0.1304894059815796</v>
       </c>
       <c r="N25" t="n">
-        <v>0.03016826051664532</v>
+        <v>0.07974567173830641</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03584289028534297</v>
+        <v>0.09680053092710539</v>
       </c>
       <c r="P25" t="n">
-        <v>0.001710486228398237</v>
+        <v>0.0529757466295648</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.09017699866845542</v>
+        <v>0.1327897863627836</v>
       </c>
       <c r="R25" t="n">
-        <v>0.01709341785433061</v>
+        <v>0.02478410091188876</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01647869466181821</v>
+        <v>0.0248548834053721</v>
       </c>
       <c r="T25" t="n">
-        <v>0.03116317101231559</v>
+        <v>0.03099427155139178</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04289002526075469</v>
+        <v>0.02297516594816116</v>
       </c>
       <c r="V25" t="n">
-        <v>0.09388394542714025</v>
+        <v>0.1225922728089807</v>
       </c>
       <c r="W25" t="n">
-        <v>0.007134537059904933</v>
+        <v>0.002200875298840778</v>
       </c>
       <c r="X25" t="n">
-        <v>0.01383614235629912</v>
+        <v>0.01877218016814444</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.09385587536340474</v>
+        <v>0.02786180225640761</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.006399316017399719</v>
+        <v>0.001961575071727435</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.01082920867831153</v>
+        <v>0.0601796509025413</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.09216735003832852</v>
+        <v>0.03680996899727983</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.2517363010620582</v>
+        <v>-0.2534370797270099</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1111715913897897</v>
+        <v>0.112429840961441</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02775984504445021</v>
+        <v>0.01682398692968737</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07415963390212361</v>
+        <v>0.06468649492923129</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06211220692774618</v>
+        <v>0.08562825927783436</v>
       </c>
       <c r="I26" t="n">
-        <v>0.04044205036159604</v>
+        <v>0.0318781160813876</v>
       </c>
       <c r="J26" t="n">
-        <v>0.04587280262856216</v>
+        <v>0.08017522534396974</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01209476205158921</v>
+        <v>0.0065334088875474</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03727413814578533</v>
+        <v>0.05227803919496084</v>
       </c>
       <c r="M26" t="n">
-        <v>0.06128179663398038</v>
+        <v>0.06571760998499104</v>
       </c>
       <c r="N26" t="n">
-        <v>8.796368110884375e-05</v>
+        <v>0.01178067222409535</v>
       </c>
       <c r="O26" t="n">
-        <v>0.04095199552012747</v>
+        <v>0.04031520860296082</v>
       </c>
       <c r="P26" t="n">
-        <v>0.07996513690035516</v>
+        <v>0.09081999191225387</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.06572767978749912</v>
+        <v>0.03580186093316029</v>
       </c>
       <c r="R26" t="n">
-        <v>0.06389422408777429</v>
+        <v>0.01560959764150621</v>
       </c>
       <c r="S26" t="n">
-        <v>0.02639881218971808</v>
+        <v>0.02929632664605947</v>
       </c>
       <c r="T26" t="n">
-        <v>0.04316916231093951</v>
+        <v>0.03718261453685798</v>
       </c>
       <c r="U26" t="n">
-        <v>0.06330361573709183</v>
+        <v>0.008793341765416069</v>
       </c>
       <c r="V26" t="n">
-        <v>0.006021179465483159</v>
+        <v>0.01573680527000061</v>
       </c>
       <c r="W26" t="n">
-        <v>0.05193110163494404</v>
+        <v>0.0773121406848115</v>
       </c>
       <c r="X26" t="n">
-        <v>0.06261584342480683</v>
+        <v>0.09146794964642337</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.03867722514998829</v>
+        <v>0.04142031769542297</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.03773027017505415</v>
+        <v>0.06288734960161094</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.01221134305435823</v>
+        <v>0.004633857775169417</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.04631721118491788</v>
+        <v>0.03322082443464133</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.1708049136027349</v>
+        <v>0.1801779815692798</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1293986662204602</v>
+        <v>0.1914019066821182</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06089244270992034</v>
+        <v>0.09425805848339124</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08639416326126473</v>
+        <v>0.1102796387592824</v>
       </c>
       <c r="H27" t="n">
-        <v>0.005670290848288058</v>
+        <v>0.005204145346708151</v>
       </c>
       <c r="I27" t="n">
-        <v>0.008375195634216844</v>
+        <v>0.0006036126165139167</v>
       </c>
       <c r="J27" t="n">
-        <v>0.04912079636307431</v>
+        <v>0.005931485062577217</v>
       </c>
       <c r="K27" t="n">
-        <v>0.008572473258119388</v>
+        <v>0.02808528363111537</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0869148432309073</v>
+        <v>0.008177559558470399</v>
       </c>
       <c r="M27" t="n">
-        <v>0.07459094882464914</v>
+        <v>0.07166865197641531</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02409259359013307</v>
+        <v>0.101143747638571</v>
       </c>
       <c r="O27" t="n">
-        <v>0.002878141267451093</v>
+        <v>0.01442460997672722</v>
       </c>
       <c r="P27" t="n">
-        <v>0.06728672692426341</v>
+        <v>0.04374464998159335</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.05182100078559159</v>
+        <v>0.044611786581986</v>
       </c>
       <c r="R27" t="n">
-        <v>0.002437854557138642</v>
+        <v>0.09521425431649604</v>
       </c>
       <c r="S27" t="n">
-        <v>0.001724207309259563</v>
+        <v>0.04613014854769294</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01227796747854558</v>
+        <v>0.02016439859204735</v>
       </c>
       <c r="U27" t="n">
-        <v>4.447875937140243e-05</v>
+        <v>0.0266111180486815</v>
       </c>
       <c r="V27" t="n">
-        <v>0.09922314575611942</v>
+        <v>0.02431587526150593</v>
       </c>
       <c r="W27" t="n">
-        <v>0.08206448766126255</v>
+        <v>0.07042017365346585</v>
       </c>
       <c r="X27" t="n">
-        <v>0.05524118383573996</v>
+        <v>0.001586823193172261</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.06207727071683927</v>
+        <v>0.0883683552845837</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.05749927293809672</v>
+        <v>0.06806313767157607</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.02410600868242679</v>
+        <v>0.01492490845271242</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.07669450560732062</v>
+        <v>0.01606757736471464</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.1953350054754921</v>
+        <v>0.1895433507127082</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.119514402709546</v>
+        <v>0.1216197751468957</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04622096482691777</v>
+        <v>0.05275969493930837</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681477349851887</v>
+        <v>0.04156754783256747</v>
       </c>
       <c r="H28" t="n">
-        <v>0.05673905013669756</v>
+        <v>0.01999785580581319</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01461981497566943</v>
+        <v>0.06268412144541261</v>
       </c>
       <c r="J28" t="n">
-        <v>0.009296373050841824</v>
+        <v>0.002645044871069285</v>
       </c>
       <c r="K28" t="n">
-        <v>0.02114142722187775</v>
+        <v>0.06972959025226355</v>
       </c>
       <c r="L28" t="n">
-        <v>0.001339141598083978</v>
+        <v>0.03843886719970205</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04084013588511118</v>
+        <v>0.06530421058256748</v>
       </c>
       <c r="N28" t="n">
-        <v>0.003534874291084325</v>
+        <v>0.00549004675578625</v>
       </c>
       <c r="O28" t="n">
-        <v>0.01806605791020924</v>
+        <v>0.03424950443945479</v>
       </c>
       <c r="P28" t="n">
-        <v>0.08332123725856878</v>
+        <v>0.06570306693727035</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.09494711836749128</v>
+        <v>0.07318442407011973</v>
       </c>
       <c r="R28" t="n">
-        <v>0.01301679444520273</v>
+        <v>0.06236168551567151</v>
       </c>
       <c r="S28" t="n">
-        <v>0.09702536282133054</v>
+        <v>0.04094642579297054</v>
       </c>
       <c r="T28" t="n">
-        <v>0.04807266115241358</v>
+        <v>0.03836781889015015</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06874849206927713</v>
+        <v>0.07217796730569598</v>
       </c>
       <c r="V28" t="n">
-        <v>0.03758950429192125</v>
+        <v>0.01552173531611337</v>
       </c>
       <c r="W28" t="n">
-        <v>0.09855192383451743</v>
+        <v>0.0594683811065057</v>
       </c>
       <c r="X28" t="n">
-        <v>0.01055322721167045</v>
+        <v>0.00572415622361456</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.05896335592820803</v>
+        <v>0.0566333557269308</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.02563201135692758</v>
+        <v>0.05578340596791626</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.07100904147120585</v>
+        <v>0.04866839927739582</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.003956656396253574</v>
+        <v>0.01259269374570001</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.00812330094678604</v>
+        <v>-0.00288365194142623</v>
       </c>
     </row>
     <row r="29">
@@ -3160,79 +3160,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1297262457703068</v>
+        <v>0.1248664422260268</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09943570349742864</v>
+        <v>0.1015131396971576</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01225452123672959</v>
+        <v>0.04534432059921316</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01293351429041132</v>
+        <v>0.08283417796999235</v>
       </c>
       <c r="I29" t="n">
-        <v>0.00219903676495173</v>
+        <v>0.013053771043505</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01098305781840311</v>
+        <v>0.01646000670127149</v>
       </c>
       <c r="K29" t="n">
-        <v>0.001549865428660694</v>
+        <v>0.02274125964056781</v>
       </c>
       <c r="L29" t="n">
-        <v>0.002606522360771379</v>
+        <v>0.005704510388823368</v>
       </c>
       <c r="M29" t="n">
-        <v>0.07113597751765958</v>
+        <v>0.07785555332163514</v>
       </c>
       <c r="N29" t="n">
-        <v>0.02432909456862096</v>
+        <v>0.02351192331871649</v>
       </c>
       <c r="O29" t="n">
-        <v>0.08079410165981572</v>
+        <v>0.03452058334467084</v>
       </c>
       <c r="P29" t="n">
-        <v>0.05960041974294265</v>
+        <v>0.03086995462557369</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.05759942975759991</v>
+        <v>0.08623734209400996</v>
       </c>
       <c r="R29" t="n">
-        <v>0.03582889259761438</v>
+        <v>0.0888606381687892</v>
       </c>
       <c r="S29" t="n">
-        <v>0.002940097612174523</v>
+        <v>0.04359120847627088</v>
       </c>
       <c r="T29" t="n">
-        <v>0.03375461863140621</v>
+        <v>0.00245980940643504</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0695550370154597</v>
+        <v>0.03953408663617421</v>
       </c>
       <c r="V29" t="n">
-        <v>0.069967072605226</v>
+        <v>0.007677595541965373</v>
       </c>
       <c r="W29" t="n">
-        <v>0.09212272516304292</v>
+        <v>0.04305010260617258</v>
       </c>
       <c r="X29" t="n">
-        <v>0.02417114259700498</v>
+        <v>0.01742605870279288</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.09260203917575019</v>
+        <v>0.1007882685930403</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.09186434778834719</v>
+        <v>0.06509198704136764</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.0296149654421802</v>
+        <v>0.04083258796690797</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.02215781672779841</v>
+        <v>0.01004111411494715</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.07388814226074111</v>
+        <v>0.01377899417678519</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1259631331515539</v>
+        <v>0.1226016104668824</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007002943228193712</v>
+        <v>0.04987606413609832</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002072998458631569</v>
+        <v>0.004879140653048363</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09514283630513989</v>
+        <v>0.01431967375601445</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0696429846987633</v>
+        <v>0.07734285443751407</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03354124054756624</v>
+        <v>0.0535524434189314</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05547041693311862</v>
+        <v>0.09824644962857335</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08778796626037919</v>
+        <v>0.0386307409909015</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003657050346389842</v>
+        <v>0.004858077603667908</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003886786595117929</v>
+        <v>0.002937913169620695</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07670854680497566</v>
+        <v>0.1103814289038899</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07225828427478218</v>
+        <v>0.00364892270758018</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03420445735396657</v>
+        <v>0.02993997793091016</v>
       </c>
       <c r="R2" t="n">
-        <v>0.09168323534906184</v>
+        <v>0.07799612571718516</v>
       </c>
       <c r="S2" t="n">
-        <v>0.07188599404699586</v>
+        <v>0.03417980265900427</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0007445200047680899</v>
+        <v>0.03424287905835832</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0490369908711481</v>
+        <v>0.03311060312467302</v>
       </c>
       <c r="V2" t="n">
-        <v>0.00262987806463955</v>
+        <v>0.007623523121446124</v>
       </c>
       <c r="W2" t="n">
-        <v>0.07893617817024823</v>
+        <v>0.04359211344182012</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0136474922362162</v>
+        <v>0.06547362378878739</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0242129637685278</v>
+        <v>0.007144033042325561</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.006234380099958116</v>
+        <v>0.1029574533893178</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.09233754799199208</v>
+        <v>0.1036040861694046</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02727430758941942</v>
+        <v>0.001462069150927289</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1811440960505368</v>
+        <v>0.1121418643933389</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1440713523256886</v>
+        <v>0.1361256395873386</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005511386074126936</v>
+        <v>0.008369192067897801</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0009683903815021239</v>
+        <v>0.004634612761629179</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05706461073619171</v>
+        <v>0.03223862904170863</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09161610576895651</v>
+        <v>0.1081999293626028</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01767755466152698</v>
+        <v>0.02320200839804671</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07487078987713884</v>
+        <v>0.08667939196713943</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008149385280013898</v>
+        <v>0.07927522458975567</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06363819726382203</v>
+        <v>0.006903933898923048</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00360472353987972</v>
+        <v>0.005743091321447495</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03300674504342828</v>
+        <v>0.004217627317719319</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0245878262220907</v>
+        <v>0.09743564539542626</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05512150190344248</v>
+        <v>0.06193918784973687</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05809613308220133</v>
+        <v>0.0174858583881425</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05933659709365337</v>
+        <v>0.07357338760890852</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05288940776545342</v>
+        <v>0.05911829781175713</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03594828818006281</v>
+        <v>0.03852138523309081</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06500894037351702</v>
+        <v>0.01796284353686553</v>
       </c>
       <c r="W3" t="n">
-        <v>0.09376667943396072</v>
+        <v>0.05663012117335222</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02400600519842262</v>
+        <v>0.09234755955806122</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02137570418733389</v>
+        <v>0.002344645490622105</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.004985331379061448</v>
+        <v>0.02390821753233609</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.05651959070270125</v>
+        <v>0.01493115123367269</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.09225010585151194</v>
+        <v>0.08433805846115812</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1533243439897147</v>
+        <v>0.1698111566353668</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1272595869063876</v>
+        <v>0.1244517176931789</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03087403531829811</v>
+        <v>0.09344096042748395</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05691611721955824</v>
+        <v>0.02045592765856352</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06369597255041783</v>
+        <v>0.0230568862835293</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007814345529786325</v>
+        <v>0.0216026901906411</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04338673419293161</v>
+        <v>0.03464184402773256</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002477451568472859</v>
+        <v>0.0133195127721578</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0276947656720162</v>
+        <v>0.002361634468147844</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02891421931018404</v>
+        <v>0.0144583227342896</v>
       </c>
       <c r="N4" t="n">
-        <v>0.007633417748169395</v>
+        <v>0.0006560491267866132</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07581394510134679</v>
+        <v>0.04557705374099139</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04049346528898945</v>
+        <v>0.09254150387284063</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.004616739702061857</v>
+        <v>0.02000490009999193</v>
       </c>
       <c r="R4" t="n">
-        <v>0.08041229232519172</v>
+        <v>0.090794735847903</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04960962836912461</v>
+        <v>0.0288390296182338</v>
       </c>
       <c r="T4" t="n">
-        <v>0.07003033722518576</v>
+        <v>0.07729945418469346</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06174533151479001</v>
+        <v>0.05669357196791498</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0305216280234364</v>
+        <v>0.09967771678489264</v>
       </c>
       <c r="W4" t="n">
-        <v>0.07468496611300487</v>
+        <v>0.0577424095250419</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03380268490070917</v>
+        <v>0.09428503967929976</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.07619278650895087</v>
+        <v>0.07425481819371671</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.07283686772671732</v>
+        <v>0.02863325070438507</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.05058168880462567</v>
+        <v>0.003319182763609959</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.00925057928603092</v>
+        <v>0.006343505327152728</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.5924721202871878</v>
+        <v>-0.6541213138540207</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1942182779541169</v>
+        <v>0.2002568403598444</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08531242255028164</v>
+        <v>0.01953118631826243</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01990691308849266</v>
+        <v>0.05417104841049342</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0805817265682978</v>
+        <v>0.009702215704722008</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06911820878749818</v>
+        <v>0.1154601600327308</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02203355067538589</v>
+        <v>0.01217336641791924</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0396068809900388</v>
+        <v>0.0172359522215773</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09424537760966981</v>
+        <v>0.05898646897120415</v>
       </c>
       <c r="M5" t="n">
-        <v>0.009632192576156058</v>
+        <v>0.001150338673452444</v>
       </c>
       <c r="N5" t="n">
-        <v>0.007243860479937887</v>
+        <v>0.01424388691292269</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02595893091278924</v>
+        <v>0.04550648500635277</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04218616680585462</v>
+        <v>0.04758662169760947</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.05262586787064442</v>
+        <v>0.02648710642784895</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02456691818643555</v>
+        <v>0.1096891793708736</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02059617848088658</v>
+        <v>0.02967849080173964</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03502996053147309</v>
+        <v>0.1191293815459741</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001619634387769557</v>
+        <v>6.821012006768665e-05</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01752665103754182</v>
+        <v>0.0169319786255047</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04372311848322737</v>
+        <v>0.05369068408760889</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01644856758532892</v>
+        <v>0.003443798566408341</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1077807908376213</v>
+        <v>0.06019013999333798</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0346119018001432</v>
+        <v>0.002120351526391683</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.04118797697635992</v>
+        <v>0.09149234854398861</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1084562027781656</v>
+        <v>0.09133060002300913</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.6530015889596703</v>
+        <v>-0.648846692997273</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2359631151744843</v>
+        <v>0.2331112665901944</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08751304069430095</v>
+        <v>0.01211667076052565</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02999025600393559</v>
+        <v>0.01261640889146006</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09192793194252094</v>
+        <v>0.01081857464550013</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03176472986978848</v>
+        <v>0.0601770572845241</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01966228461893446</v>
+        <v>0.06468776472417123</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005685178095751742</v>
+        <v>0.07884523689511037</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02886521433659855</v>
+        <v>0.009866372427769292</v>
       </c>
       <c r="M6" t="n">
-        <v>0.008825162613676702</v>
+        <v>0.01995272539520178</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001082276270681525</v>
+        <v>0.004778875837361282</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07330920924233497</v>
+        <v>0.003490823824115654</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02104305197603086</v>
+        <v>0.06771264391260791</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1047565895303991</v>
+        <v>0.05381089445442239</v>
       </c>
       <c r="R6" t="n">
-        <v>0.111655298232152</v>
+        <v>0.09311191286109276</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1008110413787284</v>
+        <v>0.06776469753701446</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04095253831993964</v>
+        <v>0.01360884195353428</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09707564881015548</v>
+        <v>0.05412720418839217</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0006684119926546502</v>
+        <v>0.004144170722806383</v>
       </c>
       <c r="W6" t="n">
-        <v>0.038849191468848</v>
+        <v>0.09514815335985699</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03572433182017604</v>
+        <v>0.07708141365966976</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.03445526776049285</v>
+        <v>0.08748968630575031</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.02231562035897038</v>
+        <v>0.09078600540928343</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.003279663563396102</v>
+        <v>0.008269625269965671</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.009788061099532334</v>
+        <v>0.009594239679864025</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2042452669095475</v>
+        <v>0.149913777806357</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.3362975007437645</v>
+        <v>0.3403125247287997</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08568942237253437</v>
+        <v>0.01390382614543631</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002899862689316272</v>
+        <v>0.02713931134564041</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0335903452186293</v>
+        <v>0.01141024033821768</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007583300315570431</v>
+        <v>0.02728290602813293</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002475458279998082</v>
+        <v>0.003532260074730446</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001609926714559238</v>
+        <v>0.02612446484990143</v>
       </c>
       <c r="L7" t="n">
-        <v>0.012588083582481</v>
+        <v>0.04458244764481035</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06117668934146893</v>
+        <v>0.02818476688064023</v>
       </c>
       <c r="N7" t="n">
-        <v>0.05741013668185816</v>
+        <v>0.03766242441930671</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1040085884571747</v>
+        <v>0.03195222108304752</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05870516595554345</v>
+        <v>0.004072731121168317</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0150666063160866</v>
+        <v>0.07352383651173849</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0007438844745776712</v>
+        <v>0.0003386846381856084</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01799322225392705</v>
+        <v>0.09979537987032414</v>
       </c>
       <c r="T7" t="n">
-        <v>0.009201727420934482</v>
+        <v>0.02008460351732175</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003974322858982302</v>
+        <v>0.02244355099652039</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1186094576315634</v>
+        <v>0.1086248720435727</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04921028745829879</v>
+        <v>0.1020635084771399</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0992201231344991</v>
+        <v>0.09860486838564289</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1073771414446232</v>
+        <v>0.01552641995071338</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.06268122210493303</v>
+        <v>0.04906568014437879</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.02550788305284565</v>
+        <v>0.0468824536359409</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.06267714223959468</v>
+        <v>0.1071985418974886</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3249686130804448</v>
+        <v>0.3285302406496415</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.24950704269965</v>
+        <v>0.255438631597158</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07066798760586417</v>
+        <v>0.04600170287045943</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03666823938634627</v>
+        <v>0.01439810626286911</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00427161006184612</v>
+        <v>0.04990125519534226</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03212863560328608</v>
+        <v>0.09039994380930109</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08157337187087371</v>
+        <v>0.07037311406446085</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01174440827443775</v>
+        <v>0.03496151683015937</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05420179802427966</v>
+        <v>0.005152779810484362</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04236915677447919</v>
+        <v>0.0184697321933407</v>
       </c>
       <c r="N8" t="n">
-        <v>0.003062130842434514</v>
+        <v>0.0101107656401358</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0001873768799443983</v>
+        <v>0.01732306621849024</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07621917285332461</v>
+        <v>0.001295857010481719</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04610851686065007</v>
+        <v>0.08231644551356561</v>
       </c>
       <c r="R8" t="n">
-        <v>0.09096218334407916</v>
+        <v>0.0544392803493376</v>
       </c>
       <c r="S8" t="n">
-        <v>0.08014736305627217</v>
+        <v>0.03202490324161481</v>
       </c>
       <c r="T8" t="n">
-        <v>0.004249882471033283</v>
+        <v>0.0439593669447921</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0131768754693123</v>
+        <v>0.003936875166204822</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02832651913332349</v>
+        <v>0.02089088118400956</v>
       </c>
       <c r="W8" t="n">
-        <v>0.09545678010411138</v>
+        <v>0.07477594646421999</v>
       </c>
       <c r="X8" t="n">
-        <v>0.06631288392151791</v>
+        <v>0.09284414491883977</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.09271193052979951</v>
+        <v>0.07461014894619519</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.03767775539211801</v>
+        <v>0.09056732987941585</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.01005808315817236</v>
+        <v>0.002104912909581231</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.02171733838249405</v>
+        <v>0.06914192457669868</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1105988185832917</v>
+        <v>0.1186908439128481</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3457254485025152</v>
+        <v>0.2887151567368324</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01917076660563618</v>
+        <v>0.08699555344539284</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0218857612312118</v>
+        <v>0.07305262424139707</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09482718082895476</v>
+        <v>0.007783007382202779</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02268467802579872</v>
+        <v>0.006504746218247518</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08355425682662559</v>
+        <v>0.06031956073157227</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05931296095454569</v>
+        <v>0.0353482189117045</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04802826741647746</v>
+        <v>0.004841709539096671</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00522317376064704</v>
+        <v>0.06335081297821622</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1227754890922747</v>
+        <v>0.000749315349263612</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02383618228145957</v>
+        <v>0.01393049048404441</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02434806827758655</v>
+        <v>0.00921737689657005</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.004583826796279489</v>
+        <v>0.004472252316639125</v>
       </c>
       <c r="R9" t="n">
-        <v>0.08836344675459254</v>
+        <v>0.0910231930280119</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01537060243379937</v>
+        <v>0.02595213106658332</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0418645916735351</v>
+        <v>0.07216190433083389</v>
       </c>
       <c r="U9" t="n">
-        <v>0.113845364418416</v>
+        <v>0.07265603407190589</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1276311146285645</v>
+        <v>0.1058601361503322</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02383345608552621</v>
+        <v>0.06910599091125258</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0253716599931831</v>
+        <v>0.009176229302536806</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.005331884827241311</v>
+        <v>0.01383358865954599</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.003902096426200978</v>
+        <v>0.07398764906538016</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.01828059077633264</v>
+        <v>0.01331493931582019</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.005974579885110613</v>
+        <v>0.08636253560345011</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2142664248883905</v>
+        <v>0.2177951649834682</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1933998482315762</v>
+        <v>0.1940326363405456</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002103701197674173</v>
+        <v>0.002923865088856482</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09238935213573436</v>
+        <v>0.006409606848117535</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001570825250065103</v>
+        <v>0.02204968994703725</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09018257231975198</v>
+        <v>0.06066444260750905</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002073661015018771</v>
+        <v>0.05230078585252004</v>
       </c>
       <c r="K10" t="n">
-        <v>0.008462684376699935</v>
+        <v>0.01398827859010466</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03958060137708051</v>
+        <v>0.06077227106294826</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03956326872571694</v>
+        <v>0.01501242269246041</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03347112477665887</v>
+        <v>0.03041144487644148</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05785658669430126</v>
+        <v>0.07479908168514257</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0864164311392952</v>
+        <v>0.07397749836196962</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.08246288680780758</v>
+        <v>0.06535871780812309</v>
       </c>
       <c r="R10" t="n">
-        <v>0.06053756230868768</v>
+        <v>0.06914889746069726</v>
       </c>
       <c r="S10" t="n">
-        <v>0.06481253662728359</v>
+        <v>0.06980508212134519</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001347512227479222</v>
+        <v>0.01844295593709522</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03595882099003769</v>
+        <v>0.0616693115810801</v>
       </c>
       <c r="V10" t="n">
-        <v>0.04787730247241023</v>
+        <v>0.06977502742471753</v>
       </c>
       <c r="W10" t="n">
-        <v>0.04426882117938577</v>
+        <v>0.04573160127375051</v>
       </c>
       <c r="X10" t="n">
-        <v>0.08796675919760312</v>
+        <v>0.04996945902268788</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03968146163287231</v>
+        <v>0.05972863591315387</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.06247431685711102</v>
+        <v>0.06194194356203293</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01242733827252543</v>
+        <v>0.01460037333787907</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.006513872418799392</v>
+        <v>0.0005186069443300928</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.1245222012327999</v>
+        <v>-0.1289618669668079</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.3072225725196169</v>
+        <v>0.3055624032398299</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04671170004492384</v>
+        <v>0.05188155140685074</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1075623455583946</v>
+        <v>0.0233501722052053</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04843089712337365</v>
+        <v>0.01713310232708877</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05877633482043912</v>
+        <v>0.005530278817999395</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08432805066882632</v>
+        <v>0.08223057453717705</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01626722185821517</v>
+        <v>0.01981123798590236</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01291557534857208</v>
+        <v>0.06560956640844065</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02053455180115003</v>
+        <v>0.009628212052445561</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02407405904158342</v>
+        <v>0.0001323786927129751</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01234885567486863</v>
+        <v>0.05961461464495372</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02140356312551635</v>
+        <v>0.005472583602475662</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004729504597198663</v>
+        <v>0.05319315753824957</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04294114825476383</v>
+        <v>0.02683630063303534</v>
       </c>
       <c r="S11" t="n">
-        <v>0.09348633545385548</v>
+        <v>0.08360943049908048</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0683604911759428</v>
+        <v>0.01458069748227726</v>
       </c>
       <c r="U11" t="n">
-        <v>0.003631875514337907</v>
+        <v>0.07391611711371157</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1081417946693228</v>
+        <v>0.08189837853647389</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01641787930296128</v>
+        <v>0.03826986991287166</v>
       </c>
       <c r="X11" t="n">
-        <v>0.003859873019405227</v>
+        <v>0.02119129206507582</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.009200753517975602</v>
+        <v>0.01330940498731505</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.02916635179492934</v>
+        <v>0.08227102533365253</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.08306380558439123</v>
+        <v>0.08402535218185819</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.08364703204905249</v>
+        <v>0.0865047010351466</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.1265913573149279</v>
+        <v>-0.1110998533787646</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1800355314595714</v>
+        <v>0.1803843958624068</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07098775346885632</v>
+        <v>0.09252809769315308</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05431912284252807</v>
+        <v>0.003146616223933559</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05558309347059122</v>
+        <v>0.04395994152624527</v>
       </c>
       <c r="I12" t="n">
-        <v>0.008005908618877787</v>
+        <v>0.02880817989526419</v>
       </c>
       <c r="J12" t="n">
-        <v>0.07280383214290825</v>
+        <v>0.01025461284449613</v>
       </c>
       <c r="K12" t="n">
-        <v>0.006102303765080111</v>
+        <v>0.06509749699625099</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0007401543449895327</v>
+        <v>0.007309837483058894</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0142783183039013</v>
+        <v>0.09155675960809211</v>
       </c>
       <c r="N12" t="n">
-        <v>0.005648015702064021</v>
+        <v>0.005523833799721198</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003675129557190364</v>
+        <v>0.07100444734180372</v>
       </c>
       <c r="P12" t="n">
-        <v>0.06915819550191997</v>
+        <v>0.1053495119644543</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.03772116008370131</v>
+        <v>0.03363548451923222</v>
       </c>
       <c r="R12" t="n">
-        <v>0.09951195900109606</v>
+        <v>0.1001284268965352</v>
       </c>
       <c r="S12" t="n">
-        <v>0.06249095176236045</v>
+        <v>0.08612863860222847</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01434448546493649</v>
+        <v>0.008856359252176012</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07300355508353894</v>
+        <v>0.002582939938626102</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01095864335032847</v>
+        <v>0.00925756159347039</v>
       </c>
       <c r="W12" t="n">
-        <v>0.09378770026829603</v>
+        <v>0.03446445435744781</v>
       </c>
       <c r="X12" t="n">
-        <v>0.007220421076919423</v>
+        <v>0.03394685752554421</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.04774248172437497</v>
+        <v>0.01060599667945197</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.05962698755853726</v>
+        <v>0.09712592185780144</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.07150687342139968</v>
+        <v>0.02078724826453376</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.06078295348560404</v>
+        <v>0.03794077513647913</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.1850839586032318</v>
+        <v>0.1912955552428952</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1889108645662559</v>
+        <v>0.1958316148087839</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08616909783283117</v>
+        <v>0.06705592184457296</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05231361281351336</v>
+        <v>0.04606565313678166</v>
       </c>
       <c r="H13" t="n">
-        <v>0.009335577393132392</v>
+        <v>0.03409812808441861</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09227293718760649</v>
+        <v>0.05641902759526937</v>
       </c>
       <c r="J13" t="n">
-        <v>0.006856992283912083</v>
+        <v>0.007992455223427328</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01517454155271902</v>
+        <v>0.06995415462942686</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05847113134774005</v>
+        <v>0.001852259033105051</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03020315619716812</v>
+        <v>0.0131109480560427</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01867309599705583</v>
+        <v>0.02008472531800523</v>
       </c>
       <c r="O13" t="n">
-        <v>0.06652355370321947</v>
+        <v>0.05355050927184403</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02696951660678099</v>
+        <v>0.01244727034175676</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01061706092060176</v>
+        <v>0.02031323225015726</v>
       </c>
       <c r="R13" t="n">
-        <v>0.09776738255883877</v>
+        <v>0.07021925548968981</v>
       </c>
       <c r="S13" t="n">
-        <v>0.10874058832895</v>
+        <v>0.08412561748778159</v>
       </c>
       <c r="T13" t="n">
-        <v>0.03812915955775521</v>
+        <v>0.053077638615151</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09582674187633106</v>
+        <v>0.0824522030276246</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02314491027279559</v>
+        <v>0.01448798574497601</v>
       </c>
       <c r="W13" t="n">
-        <v>0.08320601653777485</v>
+        <v>0.07222980861237642</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0162115209196016</v>
+        <v>0.02180539224938702</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.03522182669231516</v>
+        <v>0.02581082261973144</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.008193233486238276</v>
+        <v>0.07121018618286916</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01406015656845274</v>
+        <v>0.01810534866107518</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.005918189364665953</v>
+        <v>0.08353145652452992</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2067866592343471</v>
+        <v>0.256380997536664</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1857119383815986</v>
+        <v>0.1876050600792027</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0118468616040993</v>
+        <v>0.09517156514379453</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0692216239020438</v>
+        <v>0.02058043132372544</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03733512309186588</v>
+        <v>0.00349290549799607</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03729256165570654</v>
+        <v>0.006757734524936837</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02459777790913055</v>
+        <v>0.06115354606496241</v>
       </c>
       <c r="K14" t="n">
-        <v>0.006344799078649539</v>
+        <v>0.02901525928865882</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02425837319885836</v>
+        <v>0.007882428953751812</v>
       </c>
       <c r="M14" t="n">
-        <v>0.05648365165568914</v>
+        <v>0.07875412568615914</v>
       </c>
       <c r="N14" t="n">
-        <v>0.004607360760455054</v>
+        <v>0.01363948666584223</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05670153854222656</v>
+        <v>0.09573224990905907</v>
       </c>
       <c r="P14" t="n">
-        <v>0.07331837073955573</v>
+        <v>0.06114615449047767</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.09425007069773135</v>
+        <v>0.00228109227061385</v>
       </c>
       <c r="R14" t="n">
-        <v>0.08849111411951754</v>
+        <v>0.06809490383255705</v>
       </c>
       <c r="S14" t="n">
-        <v>0.07626811710396157</v>
+        <v>0.07640668612061671</v>
       </c>
       <c r="T14" t="n">
-        <v>0.04812669151141558</v>
+        <v>0.006766244081334604</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05924767545816104</v>
+        <v>0.03106105272393467</v>
       </c>
       <c r="V14" t="n">
-        <v>0.03461462495738206</v>
+        <v>0.03991797468379032</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0011199898381083</v>
+        <v>0.0920012568995702</v>
       </c>
       <c r="X14" t="n">
-        <v>0.05022515620091422</v>
+        <v>0.02444740489851159</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.006826257831699632</v>
+        <v>0.002855311301006584</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.07093292111821309</v>
+        <v>0.06996196684426494</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.05894297022056111</v>
+        <v>0.08837708310792353</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.008946368804054137</v>
+        <v>0.02450313568651187</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.1750487029835016</v>
+        <v>0.230356093912151</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.225965386993802</v>
+        <v>0.2046976337924062</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03275136925844568</v>
+        <v>0.07674439150539167</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02513486875251734</v>
+        <v>0.08747569538923301</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00984910756083408</v>
+        <v>0.00612845640777781</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09578305694088848</v>
+        <v>0.0344267844448355</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02077944466786556</v>
+        <v>0.03618290829019818</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1058388534914272</v>
+        <v>0.04962865845917367</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1092935343744848</v>
+        <v>0.01021099532447723</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02764773094365614</v>
+        <v>0.03668779770272513</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01782338292024718</v>
+        <v>0.0002094033207405554</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1374814504391464</v>
+        <v>0.1146689760123955</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01511785091428184</v>
+        <v>0.0007094102849651619</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.03375957628244491</v>
+        <v>0.0337418391900491</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02397068055816314</v>
+        <v>0.0006991459782093882</v>
       </c>
       <c r="S15" t="n">
-        <v>0.03018557783312511</v>
+        <v>0.1167503560973445</v>
       </c>
       <c r="T15" t="n">
-        <v>0.008163447547729151</v>
+        <v>0.05717125837840581</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05372081556681069</v>
+        <v>0.04688818541574934</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0207575817178677</v>
+        <v>0.0007920402692774974</v>
       </c>
       <c r="W15" t="n">
-        <v>0.001553933006106814</v>
+        <v>0.05178676689682755</v>
       </c>
       <c r="X15" t="n">
-        <v>0.08393798236060861</v>
+        <v>0.1056551707761715</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.008102747395508179</v>
+        <v>0.01343462065483184</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.02677488406780256</v>
+        <v>0.1007931370848322</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.04138914215822955</v>
+        <v>6.98993280086566e-05</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.07018298124180884</v>
+        <v>0.01914410278837919</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.2833445696460045</v>
+        <v>0.2276018980975815</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1484085680891115</v>
+        <v>0.1440236786500196</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04441958780977109</v>
+        <v>0.09899270184576028</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01490707005093408</v>
+        <v>0.01123403583167118</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02807588963427653</v>
+        <v>0.04282569199892427</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03253861015955634</v>
+        <v>0.03359696904383839</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06830804316448345</v>
+        <v>0.00146010538871872</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06359512509299491</v>
+        <v>0.02951035022814875</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01100858546296506</v>
+        <v>0.009908212125071224</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02167259046753053</v>
+        <v>0.01432325856972386</v>
       </c>
       <c r="N16" t="n">
-        <v>0.00719694610259582</v>
+        <v>0.0007094470187661583</v>
       </c>
       <c r="O16" t="n">
-        <v>0.008596875094536629</v>
+        <v>0.03163823243911289</v>
       </c>
       <c r="P16" t="n">
-        <v>0.098271828212387</v>
+        <v>0.08582487967625363</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.08090825975055251</v>
+        <v>0.08317246737511226</v>
       </c>
       <c r="R16" t="n">
-        <v>0.09707568021965797</v>
+        <v>0.09641969039573775</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0854166087034296</v>
+        <v>0.05505866380356123</v>
       </c>
       <c r="T16" t="n">
-        <v>0.001544352177438534</v>
+        <v>0.01858166898929561</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08584270971572563</v>
+        <v>0.03426531477371872</v>
       </c>
       <c r="V16" t="n">
-        <v>0.02410426312643033</v>
+        <v>0.01408313761542876</v>
       </c>
       <c r="W16" t="n">
-        <v>0.02525022633533149</v>
+        <v>0.0244203662565465</v>
       </c>
       <c r="X16" t="n">
-        <v>0.01227039584246754</v>
+        <v>0.05373062334058722</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.09963804323801895</v>
+        <v>0.09829518123738119</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0200951122287166</v>
+        <v>0.0745200435627851</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.03045271059563237</v>
+        <v>0.02370951140074023</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.03881048681456711</v>
+        <v>0.06371944708311593</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.05123395413793603</v>
+        <v>0.006153625119849877</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1695418173501848</v>
+        <v>0.1785560070881535</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01401991228230338</v>
+        <v>0.05226893214469935</v>
       </c>
       <c r="G17" t="n">
-        <v>0.003365330864269808</v>
+        <v>0.02755489085120293</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01351839314561113</v>
+        <v>0.001937743003642047</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08195327270411902</v>
+        <v>0.07864707222802272</v>
       </c>
       <c r="J17" t="n">
-        <v>0.09519437477918065</v>
+        <v>0.005000287101588616</v>
       </c>
       <c r="K17" t="n">
-        <v>0.08898875372461809</v>
+        <v>0.1105813723820224</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02217802427684632</v>
+        <v>0.002747053923897496</v>
       </c>
       <c r="M17" t="n">
-        <v>0.06032992526403135</v>
+        <v>0.06484673636480724</v>
       </c>
       <c r="N17" t="n">
-        <v>0.02318989345755457</v>
+        <v>0.0156281854580957</v>
       </c>
       <c r="O17" t="n">
-        <v>0.09030245240613659</v>
+        <v>0.08848956365182727</v>
       </c>
       <c r="P17" t="n">
-        <v>0.06314167014542428</v>
+        <v>0.0422543476873784</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.04160591284701851</v>
+        <v>0.01863196602543308</v>
       </c>
       <c r="R17" t="n">
-        <v>0.001469912274644574</v>
+        <v>0.004354738149344791</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1061901172737825</v>
+        <v>0.001929350562410121</v>
       </c>
       <c r="T17" t="n">
-        <v>0.004870867262091853</v>
+        <v>0.1122882887236976</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03584795940518597</v>
+        <v>0.005592245431970772</v>
       </c>
       <c r="V17" t="n">
-        <v>0.01506074654878999</v>
+        <v>0.01723729451552948</v>
       </c>
       <c r="W17" t="n">
-        <v>0.02006672444477931</v>
+        <v>0.008182497402437934</v>
       </c>
       <c r="X17" t="n">
-        <v>0.04349285421215441</v>
+        <v>0.08206147727139451</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.02341368761697127</v>
+        <v>0.008523120704652406</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.03542580546324451</v>
+        <v>0.08264208897849153</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0519676156274853</v>
+        <v>0.06875627694444665</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.06440579397375663</v>
+        <v>0.09984447049300707</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.04604662814776475</v>
+        <v>0.005021179681234354</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1259647706254098</v>
+        <v>0.1260241095435358</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07936548762994411</v>
+        <v>0.08326463018195017</v>
       </c>
       <c r="G18" t="n">
-        <v>0.004217171987257871</v>
+        <v>0.06727333642914107</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07616180701993974</v>
+        <v>0.01510819821497821</v>
       </c>
       <c r="I18" t="n">
-        <v>0.006686838721656759</v>
+        <v>0.0001198031327604461</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04070723993844905</v>
+        <v>0.02856801349789227</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002113758253185871</v>
+        <v>0.01318444053037735</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004596592884098738</v>
+        <v>0.02045771734966769</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003260653760585145</v>
+        <v>0.01768036609191543</v>
       </c>
       <c r="N18" t="n">
-        <v>0.03773069516778645</v>
+        <v>0.01836677883611934</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02438098795097174</v>
+        <v>0.02961839005745561</v>
       </c>
       <c r="P18" t="n">
-        <v>0.06178369090253103</v>
+        <v>0.05700475922156394</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04423681209190523</v>
+        <v>0.03667244389036253</v>
       </c>
       <c r="R18" t="n">
-        <v>0.05634740824144296</v>
+        <v>0.06905848740637568</v>
       </c>
       <c r="S18" t="n">
-        <v>0.04246076198868851</v>
+        <v>0.01124638970539503</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02064657490268021</v>
+        <v>0.05372161853826236</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09828846028452468</v>
+        <v>0.07624457565209204</v>
       </c>
       <c r="V18" t="n">
-        <v>0.06920748911486331</v>
+        <v>0.005738283302195789</v>
       </c>
       <c r="W18" t="n">
-        <v>0.04405070005443191</v>
+        <v>0.07733976171008591</v>
       </c>
       <c r="X18" t="n">
-        <v>0.06909057293450065</v>
+        <v>0.05817448219184616</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.03765256639079395</v>
+        <v>0.06625296277362898</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.08670915597413827</v>
+        <v>0.08437375149116552</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.05626419025021182</v>
+        <v>0.08702444764852016</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.034040383555412</v>
+        <v>0.02350636214624813</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.108419126109293</v>
+        <v>0.08340672811650122</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1483380346803028</v>
+        <v>0.1463039321344021</v>
       </c>
       <c r="F19" t="n">
-        <v>0.004683414368238043</v>
+        <v>0.02485103295470308</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02077404757863766</v>
+        <v>0.00691627865325116</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04067040633652735</v>
+        <v>0.008863852089015533</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0141833603766707</v>
+        <v>0.1055606768456793</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1064354318615674</v>
+        <v>0.02900321955897103</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06986103928586444</v>
+        <v>0.07119800470551367</v>
       </c>
       <c r="L19" t="n">
-        <v>0.08154845752758334</v>
+        <v>0.01808360342582541</v>
       </c>
       <c r="M19" t="n">
-        <v>0.007246687216658413</v>
+        <v>0.01525460751010075</v>
       </c>
       <c r="N19" t="n">
-        <v>0.007195226940860819</v>
+        <v>0.002746881553544078</v>
       </c>
       <c r="O19" t="n">
-        <v>0.06352082699160219</v>
+        <v>0.003326768997429408</v>
       </c>
       <c r="P19" t="n">
-        <v>0.005245368433775995</v>
+        <v>0.07575788794784678</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.03774207703458355</v>
+        <v>0.03126043445015673</v>
       </c>
       <c r="R19" t="n">
-        <v>0.06685087610129536</v>
+        <v>0.007307851009022416</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1055509695720607</v>
+        <v>0.1020480455769906</v>
       </c>
       <c r="T19" t="n">
-        <v>0.003486545366826414</v>
+        <v>0.07072379830050432</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1015262512780078</v>
+        <v>0.06870094976407035</v>
       </c>
       <c r="V19" t="n">
-        <v>0.09434280800841378</v>
+        <v>0.1059988849567389</v>
       </c>
       <c r="W19" t="n">
-        <v>0.01135271071817283</v>
+        <v>0.1051407617534066</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0228137363898841</v>
+        <v>0.04092786895034056</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.007813186430854938</v>
+        <v>0.008242900099072293</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.09225396169742583</v>
+        <v>0.009137186720493027</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.02853895335211085</v>
+        <v>0.04342316907066415</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.006363657132377583</v>
+        <v>0.04552533510665971</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1647567187064278</v>
+        <v>0.167108847032178</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.167624699355663</v>
+        <v>0.1644951523316557</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01448806695593459</v>
+        <v>0.036714008670994</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08917086342628894</v>
+        <v>0.02214988008395418</v>
       </c>
       <c r="H20" t="n">
-        <v>0.005742405589335294</v>
+        <v>0.04291249368123418</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1002466660222077</v>
+        <v>0.0277803359323073</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09774940989588453</v>
+        <v>0.0472386598115855</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01523846481785829</v>
+        <v>0.006534475450090739</v>
       </c>
       <c r="L20" t="n">
-        <v>0.009629070710558544</v>
+        <v>0.03573622815559183</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0180788661676077</v>
+        <v>0.08196043501358818</v>
       </c>
       <c r="N20" t="n">
-        <v>0.06222805242906727</v>
+        <v>0.04356976580886945</v>
       </c>
       <c r="O20" t="n">
-        <v>0.04446615340655194</v>
+        <v>0.01742350069344565</v>
       </c>
       <c r="P20" t="n">
-        <v>0.008824631574626263</v>
+        <v>0.0390799556237856</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01123162890438463</v>
+        <v>0.07663881262406283</v>
       </c>
       <c r="R20" t="n">
-        <v>0.03696444548981593</v>
+        <v>0.0923974230438938</v>
       </c>
       <c r="S20" t="n">
-        <v>0.004014734465205366</v>
+        <v>0.01920190984091882</v>
       </c>
       <c r="T20" t="n">
-        <v>0.03177864653131384</v>
+        <v>0.02491684295143422</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09669234888145846</v>
+        <v>0.03681261051089626</v>
       </c>
       <c r="V20" t="n">
-        <v>0.008468604312481689</v>
+        <v>0.004395554747711877</v>
       </c>
       <c r="W20" t="n">
-        <v>0.01063455187729993</v>
+        <v>0.0003220788334101128</v>
       </c>
       <c r="X20" t="n">
-        <v>0.05390430208934955</v>
+        <v>0.08643231887527822</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.009677892818713346</v>
+        <v>0.03289477938954701</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.1042546987805131</v>
+        <v>0.08336583433843973</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.07692968651684257</v>
+        <v>0.09685947304198544</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.08958580833670064</v>
+        <v>0.04466262287697507</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.05853392294243243</v>
+        <v>0.07762632544126712</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.2251440849221384</v>
+        <v>0.2271470980371516</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09152079667641712</v>
+        <v>0.0760686262237639</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02945633551362856</v>
+        <v>0.01649987055139728</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01429449058578972</v>
+        <v>0.05708027786896067</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02377932688981706</v>
+        <v>0.01348058716338452</v>
       </c>
       <c r="J21" t="n">
-        <v>0.05397851967333674</v>
+        <v>0.01356829699448245</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05565826807190171</v>
+        <v>0.03922935564461275</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02115519880788891</v>
+        <v>0.0357112084703961</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03274753565859791</v>
+        <v>0.08999546823061369</v>
       </c>
       <c r="N21" t="n">
-        <v>0.002060852986849211</v>
+        <v>0.0003346153803223506</v>
       </c>
       <c r="O21" t="n">
-        <v>0.04605885751472599</v>
+        <v>0.02987834290633068</v>
       </c>
       <c r="P21" t="n">
-        <v>0.08818164248381001</v>
+        <v>0.0131419414066408</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.005322833891348937</v>
+        <v>0.02107617632540088</v>
       </c>
       <c r="R21" t="n">
-        <v>0.07205087705976326</v>
+        <v>0.07175043147557705</v>
       </c>
       <c r="S21" t="n">
-        <v>0.05890760575172596</v>
+        <v>0.07769587416088901</v>
       </c>
       <c r="T21" t="n">
-        <v>0.02879756838814769</v>
+        <v>0.05941295508723445</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0103041213037103</v>
+        <v>0.04033010670168547</v>
       </c>
       <c r="V21" t="n">
-        <v>0.09245960279756524</v>
+        <v>0.0877121027514805</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01803664602303337</v>
+        <v>0.01530650303741123</v>
       </c>
       <c r="X21" t="n">
-        <v>0.08922958676049304</v>
+        <v>0.08072288571742058</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.001969640359652582</v>
+        <v>0.007787535866242262</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.09172384736087644</v>
+        <v>0.07530212983585979</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.06802697303193612</v>
+        <v>0.05550203153913132</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.004278872408984059</v>
+        <v>0.02241267666076234</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.1316067723317506</v>
+        <v>0.1377111428131169</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1873327735047886</v>
+        <v>0.1861268840942512</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05499187952973961</v>
+        <v>0.06494362102120151</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0384550894847606</v>
+        <v>0.03320363298086824</v>
       </c>
       <c r="H22" t="n">
-        <v>0.009001017347641261</v>
+        <v>0.003229483020466784</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0479072735439746</v>
+        <v>0.02980808523646999</v>
       </c>
       <c r="J22" t="n">
-        <v>0.06333841006220622</v>
+        <v>0.04917650615729609</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05601388912457709</v>
+        <v>0.06628059398193425</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02444913463315297</v>
+        <v>0.001109942199049392</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04464911454690679</v>
+        <v>0.08928717263033331</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01109461016942714</v>
+        <v>0.01944470665457032</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0517346499941951</v>
+        <v>0.09222882362088193</v>
       </c>
       <c r="P22" t="n">
-        <v>0.01992398567729024</v>
+        <v>0.04000640691587928</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.06214125649407776</v>
+        <v>0.0573044356300625</v>
       </c>
       <c r="R22" t="n">
-        <v>0.07986517626131007</v>
+        <v>0.0785384441490084</v>
       </c>
       <c r="S22" t="n">
-        <v>0.01118292807500053</v>
+        <v>0.009195498616383272</v>
       </c>
       <c r="T22" t="n">
-        <v>0.02933393351311437</v>
+        <v>0.01306702402318652</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07149193571512542</v>
+        <v>0.04190356426362295</v>
       </c>
       <c r="V22" t="n">
-        <v>0.005147425792066748</v>
+        <v>0.03560190543045915</v>
       </c>
       <c r="W22" t="n">
-        <v>0.05776824504384922</v>
+        <v>0.06303591160507009</v>
       </c>
       <c r="X22" t="n">
-        <v>0.07729291638216113</v>
+        <v>0.07887479245422135</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.04244540844808054</v>
+        <v>0.01932943512384903</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.080445335687563</v>
+        <v>0.04742223042577005</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.03244798622917927</v>
+        <v>0.02142934628770709</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.02887839824460015</v>
+        <v>0.04557843757170831</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.08567496814735316</v>
+        <v>0.10591232615147</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2071892075628458</v>
+        <v>0.2152704735946912</v>
       </c>
       <c r="F23" t="n">
-        <v>0.09899911648936069</v>
+        <v>0.09336905624685699</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01247025122158729</v>
+        <v>0.02618750437343376</v>
       </c>
       <c r="H23" t="n">
-        <v>0.005467389170656648</v>
+        <v>0.001853405950501563</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03792631454558017</v>
+        <v>0.08859575286410643</v>
       </c>
       <c r="J23" t="n">
-        <v>0.05500716771157151</v>
+        <v>0.05223402966501851</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02553908191876293</v>
+        <v>0.01984909279863036</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01897579059648719</v>
+        <v>0.003848684584399193</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03524466093105619</v>
+        <v>0.04995348378548298</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01531185838461778</v>
+        <v>0.000188319722271036</v>
       </c>
       <c r="O23" t="n">
-        <v>0.102406033430228</v>
+        <v>0.07419740072944123</v>
       </c>
       <c r="P23" t="n">
-        <v>0.005064604846404277</v>
+        <v>0.01974153412771134</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.07344358230485613</v>
+        <v>0.01296600106128513</v>
       </c>
       <c r="R23" t="n">
-        <v>0.03259939145013559</v>
+        <v>0.03464835852003114</v>
       </c>
       <c r="S23" t="n">
-        <v>0.01245474707671213</v>
+        <v>0.03348028227124684</v>
       </c>
       <c r="T23" t="n">
-        <v>0.07513045611082361</v>
+        <v>0.0769029926460567</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01273573918467394</v>
+        <v>0.05017711040431892</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1000887967789577</v>
+        <v>0.09257509709767008</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01076225000000041</v>
+        <v>0.0789327851841788</v>
       </c>
       <c r="X23" t="n">
-        <v>0.03663198134628012</v>
+        <v>0.02534113204807179</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.092279326228999</v>
+        <v>0.01338567880097406</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.06401136015395097</v>
+        <v>0.05063912513364281</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0260588692363288</v>
+        <v>0.08240530078396528</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.05139123088196908</v>
+        <v>0.01852787120070499</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.1489898203414861</v>
+        <v>0.07934436199580493</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1375075108605006</v>
+        <v>0.1358701292713609</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05465592299650276</v>
+        <v>0.08597509290903504</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02361872633910696</v>
+        <v>0.01760656230137483</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07392386101664565</v>
+        <v>0.003819275729472263</v>
       </c>
       <c r="I24" t="n">
-        <v>0.09266831500005239</v>
+        <v>0.03660487006259819</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02491035348123909</v>
+        <v>0.02719292060174755</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002942663556459195</v>
+        <v>0.009674037075888254</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01232440539899876</v>
+        <v>0.02139479647681268</v>
       </c>
       <c r="M24" t="n">
-        <v>0.06265806218522266</v>
+        <v>0.08607468178328941</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0245552507624503</v>
+        <v>0.000840294721967656</v>
       </c>
       <c r="O24" t="n">
-        <v>0.06048736411668394</v>
+        <v>0.009893354191950716</v>
       </c>
       <c r="P24" t="n">
-        <v>0.07084963399804255</v>
+        <v>0.09560180434421815</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01014873560753651</v>
+        <v>0.03724219560913098</v>
       </c>
       <c r="R24" t="n">
-        <v>0.04717327863449462</v>
+        <v>0.08303726458204078</v>
       </c>
       <c r="S24" t="n">
-        <v>0.02962541949344538</v>
+        <v>0.0230070339878432</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1006088640617858</v>
+        <v>0.09017632933529678</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08703843218124681</v>
+        <v>0.05459243270212818</v>
       </c>
       <c r="V24" t="n">
-        <v>0.004599178965627934</v>
+        <v>0.01510093456793851</v>
       </c>
       <c r="W24" t="n">
-        <v>0.05294746113296127</v>
+        <v>0.073715131873343</v>
       </c>
       <c r="X24" t="n">
-        <v>0.09753789047820273</v>
+        <v>0.06340836821390847</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0004402871282772211</v>
+        <v>0.02446125470462761</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.0254693465989816</v>
+        <v>0.0414454551544589</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.01217769641995376</v>
+        <v>0.08669289573697218</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.02863885044608206</v>
+        <v>0.01244301333395688</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.2345007264299186</v>
+        <v>-0.1525691624515212</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.166512231307497</v>
+        <v>0.166412503140707</v>
       </c>
       <c r="F25" t="n">
-        <v>0.001737970721013627</v>
+        <v>0.001309633923918657</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0179293690708967</v>
+        <v>0.04732035704623826</v>
       </c>
       <c r="H25" t="n">
-        <v>0.005584504751141795</v>
+        <v>0.08091933753633181</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04779278372242273</v>
+        <v>0.03167438088292256</v>
       </c>
       <c r="J25" t="n">
-        <v>0.007193151576445362</v>
+        <v>0.02323589179741691</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01547549254117167</v>
+        <v>0.03827038900418833</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03749883865683262</v>
+        <v>0.006638935895728064</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1304894059815796</v>
+        <v>0.07896892791377336</v>
       </c>
       <c r="N25" t="n">
-        <v>0.07974567173830641</v>
+        <v>0.003790343894214657</v>
       </c>
       <c r="O25" t="n">
-        <v>0.09680053092710539</v>
+        <v>0.06237115391795604</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0529757466295648</v>
+        <v>0.04945837080787877</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1327897863627836</v>
+        <v>0.06451620196708552</v>
       </c>
       <c r="R25" t="n">
-        <v>0.02478410091188876</v>
+        <v>0.04631549455081123</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0248548834053721</v>
+        <v>0.03265889510551324</v>
       </c>
       <c r="T25" t="n">
-        <v>0.03099427155139178</v>
+        <v>0.0320562841164287</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02297516594816116</v>
+        <v>0.09721233474453965</v>
       </c>
       <c r="V25" t="n">
-        <v>0.1225922728089807</v>
+        <v>0.1012561511418595</v>
       </c>
       <c r="W25" t="n">
-        <v>0.002200875298840778</v>
+        <v>0.01588786028562317</v>
       </c>
       <c r="X25" t="n">
-        <v>0.01877218016814444</v>
+        <v>0.003536349029220088</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.02786180225640761</v>
+        <v>0.08641622424889886</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.001961575071727435</v>
+        <v>0.01560602273758963</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.0601796509025413</v>
+        <v>0.02277819111763051</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.03680996899727983</v>
+        <v>0.05780226833423245</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.2534370797270099</v>
+        <v>-0.2148527433246224</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.112429840961441</v>
+        <v>0.1116769487405831</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01682398692968737</v>
+        <v>0.06467931263543407</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06468649492923129</v>
+        <v>0.04295378731085053</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08562825927783436</v>
+        <v>0.03307266287786892</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0318781160813876</v>
+        <v>0.009038953752504946</v>
       </c>
       <c r="J26" t="n">
-        <v>0.08017522534396974</v>
+        <v>0.06270704454782459</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0065334088875474</v>
+        <v>0.04933491785132947</v>
       </c>
       <c r="L26" t="n">
-        <v>0.05227803919496084</v>
+        <v>0.01468321762657577</v>
       </c>
       <c r="M26" t="n">
-        <v>0.06571760998499104</v>
+        <v>0.07931997822383954</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01178067222409535</v>
+        <v>0.008507576075633709</v>
       </c>
       <c r="O26" t="n">
-        <v>0.04031520860296082</v>
+        <v>0.01804923553520476</v>
       </c>
       <c r="P26" t="n">
-        <v>0.09081999191225387</v>
+        <v>0.09196379556694852</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.03580186093316029</v>
+        <v>0.0421691214763121</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01560959764150621</v>
+        <v>0.01053143305305814</v>
       </c>
       <c r="S26" t="n">
-        <v>0.02929632664605947</v>
+        <v>0.02714726045383552</v>
       </c>
       <c r="T26" t="n">
-        <v>0.03718261453685798</v>
+        <v>0.01764567460626859</v>
       </c>
       <c r="U26" t="n">
-        <v>0.008793341765416069</v>
+        <v>0.04712892356115885</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01573680527000061</v>
+        <v>0.05471164820977943</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0773121406848115</v>
+        <v>0.1034700428163748</v>
       </c>
       <c r="X26" t="n">
-        <v>0.09146794964642337</v>
+        <v>0.06585327245940313</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.04142031769542297</v>
+        <v>0.009175124421884465</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.06288734960161094</v>
+        <v>0.0896656117562445</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.004633857775169417</v>
+        <v>0.02758581634779189</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.03322082443464133</v>
+        <v>0.03060558883387371</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.1801779815692798</v>
+        <v>0.1738512090749327</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1914019066821182</v>
+        <v>0.119797272724684</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09425805848339124</v>
+        <v>0.09781745100921424</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1102796387592824</v>
+        <v>0.09173696221306751</v>
       </c>
       <c r="H27" t="n">
-        <v>0.005204145346708151</v>
+        <v>0.03934743999943065</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0006036126165139167</v>
+        <v>0.01044376025811792</v>
       </c>
       <c r="J27" t="n">
-        <v>0.005931485062577217</v>
+        <v>0.03442360303907092</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02808528363111537</v>
+        <v>0.01320994373853696</v>
       </c>
       <c r="L27" t="n">
-        <v>0.008177559558470399</v>
+        <v>0.01940699123714507</v>
       </c>
       <c r="M27" t="n">
-        <v>0.07166865197641531</v>
+        <v>0.1073844333815123</v>
       </c>
       <c r="N27" t="n">
-        <v>0.101143747638571</v>
+        <v>0.01551174047672897</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01442460997672722</v>
+        <v>0.01212694953178577</v>
       </c>
       <c r="P27" t="n">
-        <v>0.04374464998159335</v>
+        <v>0.02120868006174623</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.044611786581986</v>
+        <v>0.06908581438790373</v>
       </c>
       <c r="R27" t="n">
-        <v>0.09521425431649604</v>
+        <v>0.03959576693037641</v>
       </c>
       <c r="S27" t="n">
-        <v>0.04613014854769294</v>
+        <v>0.00798254825679812</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02016439859204735</v>
+        <v>0.0004017317582532979</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0266111180486815</v>
+        <v>0.0688430779523822</v>
       </c>
       <c r="V27" t="n">
-        <v>0.02431587526150593</v>
+        <v>0.06804057706823489</v>
       </c>
       <c r="W27" t="n">
-        <v>0.07042017365346585</v>
+        <v>0.02930582218949326</v>
       </c>
       <c r="X27" t="n">
-        <v>0.001586823193172261</v>
+        <v>0.07268119703898804</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0883683552845837</v>
+        <v>0.05473583053992504</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.06806313767157607</v>
+        <v>0.041058114951319</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.01492490845271242</v>
+        <v>0.02238244069831242</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.01606757736471464</v>
+        <v>0.06326912328165722</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.1895433507127082</v>
+        <v>0.2074483805900574</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1216197751468957</v>
+        <v>0.1194839600041048</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05275969493930837</v>
+        <v>0.04717813413170147</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04156754783256747</v>
+        <v>0.03910169271324645</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01999785580581319</v>
+        <v>0.06375586155671192</v>
       </c>
       <c r="I28" t="n">
-        <v>0.06268412144541261</v>
+        <v>0.01155476966627933</v>
       </c>
       <c r="J28" t="n">
-        <v>0.002645044871069285</v>
+        <v>0.02400460116457254</v>
       </c>
       <c r="K28" t="n">
-        <v>0.06972959025226355</v>
+        <v>0.01193914914674275</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03843886719970205</v>
+        <v>0.0112261552273769</v>
       </c>
       <c r="M28" t="n">
-        <v>0.06530421058256748</v>
+        <v>0.07269102887188304</v>
       </c>
       <c r="N28" t="n">
-        <v>0.00549004675578625</v>
+        <v>0.05929256641515444</v>
       </c>
       <c r="O28" t="n">
-        <v>0.03424950443945479</v>
+        <v>0.04585499921426549</v>
       </c>
       <c r="P28" t="n">
-        <v>0.06570306693727035</v>
+        <v>0.09157635576827017</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.07318442407011973</v>
+        <v>0.09642041249852594</v>
       </c>
       <c r="R28" t="n">
-        <v>0.06236168551567151</v>
+        <v>0.07858594001135746</v>
       </c>
       <c r="S28" t="n">
-        <v>0.04094642579297054</v>
+        <v>0.002799146633559582</v>
       </c>
       <c r="T28" t="n">
-        <v>0.03836781889015015</v>
+        <v>0.01567104603417278</v>
       </c>
       <c r="U28" t="n">
-        <v>0.07217796730569598</v>
+        <v>0.0420330913290717</v>
       </c>
       <c r="V28" t="n">
-        <v>0.01552173531611337</v>
+        <v>0.007980612731419602</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0594683811065057</v>
+        <v>0.05100346204273284</v>
       </c>
       <c r="X28" t="n">
-        <v>0.00572415622361456</v>
+        <v>0.02845119065291109</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0566333557269308</v>
+        <v>0.08525223486092087</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.05578340596791626</v>
+        <v>0.03609387150397273</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.04866839927739582</v>
+        <v>0.06456327516101341</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.01259269374570001</v>
+        <v>0.01297040266413734</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.00288365194142623</v>
+        <v>0.03557104591645446</v>
       </c>
     </row>
     <row r="29">
@@ -3160,82 +3160,82 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1248664422260268</v>
+        <v>0.1366894356915759</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1015131396971576</v>
+        <v>0.08703491668185701</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04534432059921316</v>
+        <v>0.02251771908480853</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08283417796999235</v>
+        <v>0.01119986414477858</v>
       </c>
       <c r="I29" t="n">
-        <v>0.013053771043505</v>
+        <v>0.03911923444636536</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01646000670127149</v>
+        <v>0.01106503859816814</v>
       </c>
       <c r="K29" t="n">
-        <v>0.02274125964056781</v>
+        <v>0.02919365742047485</v>
       </c>
       <c r="L29" t="n">
-        <v>0.005704510388823368</v>
+        <v>0.01035868912692879</v>
       </c>
       <c r="M29" t="n">
-        <v>0.07785555332163514</v>
+        <v>0.09292374585703614</v>
       </c>
       <c r="N29" t="n">
-        <v>0.02351192331871649</v>
+        <v>0.006264762325352282</v>
       </c>
       <c r="O29" t="n">
-        <v>0.03452058334467084</v>
+        <v>0.09336799363718072</v>
       </c>
       <c r="P29" t="n">
-        <v>0.03086995462557369</v>
+        <v>0.02824309245420449</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.08623734209400996</v>
+        <v>0.002188232136467851</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0888606381687892</v>
+        <v>0.07651977290225336</v>
       </c>
       <c r="S29" t="n">
-        <v>0.04359120847627088</v>
+        <v>0.09366906116154262</v>
       </c>
       <c r="T29" t="n">
-        <v>0.00245980940643504</v>
+        <v>0.06736657006854498</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03953408663617421</v>
+        <v>0.008329189015788257</v>
       </c>
       <c r="V29" t="n">
-        <v>0.007677595541965373</v>
+        <v>0.009575476579941285</v>
       </c>
       <c r="W29" t="n">
-        <v>0.04305010260617258</v>
+        <v>0.05889173556911328</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01742605870279288</v>
+        <v>0.06063220978390393</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.1007882685930403</v>
+        <v>0.05216295827514188</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.06509198704136764</v>
+        <v>0.06976729474232342</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.04083258796690797</v>
+        <v>0.04599069474724284</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.01004111411494715</v>
+        <v>0.02361809124058149</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.01377899417678519</v>
+        <v>-0.01232626068449046</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>